--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -44,7 +44,73 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 1:04 PM</t>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Sunday, 20 July, 2025 1:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +320,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +332,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +740,202 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
         <v>13</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>18</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>29</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>30</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>360.70999999999998</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>35</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +949,30 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>132.00</t>
   </si>
   <si>
     <t>43.5600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -95,6 +107,27 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -107,10 +140,22 @@
     <t>192.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Sunday, 20 July, 2025 1:07 PM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 20 July, 2025 1:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -850,7 +895,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -860,11 +905,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -876,14 +921,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -900,42 +945,174 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>360.70999999999998</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>33</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>33</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>41</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>44</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>45</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>489.19</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>49</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>50</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -969,10 +1146,30 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -119,6 +128,27 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>STATURIC 40MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -143,9 +173,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -155,7 +182,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 1:09 PM</t>
+    <t>Sunday, 20 July, 2025 1:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -961,7 +988,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -971,11 +998,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>26</v>
@@ -987,14 +1014,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1011,7 +1038,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1044,7 +1071,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1060,59 +1087,158 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>489.19</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>36</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>49</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>50</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>40</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>54</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>55</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>719.19000000000005</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>57</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>58</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>59</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1166,10 +1292,25 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -158,6 +167,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -182,7 +200,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 1:10 PM</t>
+    <t>Sunday, 20 July, 2025 1:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -856,7 +874,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -866,14 +884,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -955,7 +973,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1005,7 +1023,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1021,7 +1039,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1031,14 +1049,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1047,14 +1065,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1064,14 +1082,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1080,14 +1098,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1104,7 +1122,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1120,7 +1138,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1137,7 +1155,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1153,7 +1171,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1163,14 +1181,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1179,66 +1197,132 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>56</v>
       </c>
-      <c t="s" r="Q18" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>719.19000000000005</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>57</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c t="s" r="Q19" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>59</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>43</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>60</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>61</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>1054.1900000000001</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>63</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>64</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>65</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1307,10 +1391,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -116,6 +125,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -137,6 +155,18 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -149,6 +179,15 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>STATURIC 40MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -191,16 +230,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 20 July, 2025 1:14 PM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 20 July, 2025 1:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1006,7 +1042,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1039,7 +1075,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1056,7 +1092,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1072,7 +1108,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1082,14 +1118,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1098,14 +1134,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1115,11 +1151,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1131,14 +1167,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1148,11 +1184,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1164,20 +1200,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1204,7 +1240,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1214,11 +1250,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1230,14 +1266,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1254,7 +1290,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1270,59 +1306,191 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>1054.1900000000001</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>62</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>45</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>63</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>64</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>65</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>16</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>66</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>69</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>53</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>49</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1191.51</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>75</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>76</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>77</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1401,10 +1569,30 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -98,6 +98,33 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -179,6 +206,30 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>18:1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
@@ -215,6 +266,18 @@
     <t>175.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -233,10 +296,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 20 July, 2025 1:16 PM</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>Sunday, 20 July, 2025 1:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1009,7 +1075,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1019,14 +1085,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1035,7 +1101,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1052,11 +1118,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1068,14 +1134,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1085,7 +1151,7 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
@@ -1108,7 +1174,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1158,7 +1224,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1174,7 +1240,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1184,14 +1250,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1200,28 +1266,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1233,14 +1299,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1250,11 +1316,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1266,14 +1332,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1283,14 +1349,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1299,7 +1365,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1312,18 +1378,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1332,14 +1398,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1356,7 +1422,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1372,7 +1438,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1382,14 +1448,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1398,14 +1464,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1415,14 +1481,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1431,66 +1497,264 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1191.51</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>75</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>76</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>16</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>77</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>79</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>54</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>80</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>16</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>83</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>85</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>86</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>87</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>90</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>91</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>93</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>62</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>58</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>94</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1344.47</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>97</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>98</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>99</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1589,10 +1853,40 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -101,13 +101,16 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>CONVENTIN 300MG 30 CAPS.</t>
@@ -119,6 +122,30 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -173,9 +200,6 @@
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>52.00</t>
   </si>
   <si>
@@ -296,13 +320,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>Sunday, 20 July, 2025 1:18 PM</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 20 July, 2025 1:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1092,7 +1113,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1101,7 +1122,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1118,11 +1139,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1134,14 +1155,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1151,11 +1172,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1167,14 +1188,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1184,11 +1205,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1200,14 +1221,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1217,11 +1238,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1233,14 +1254,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1250,11 +1271,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1266,14 +1287,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,11 +1304,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1299,14 +1320,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1316,14 +1337,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1332,14 +1353,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1349,14 +1370,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1365,31 +1386,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1398,14 +1419,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1438,13 +1459,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1488,7 +1509,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1504,7 +1525,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1514,11 +1535,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1530,14 +1551,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1547,14 +1568,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1563,14 +1584,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1580,11 +1601,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1596,7 +1617,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1613,11 +1634,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1629,14 +1650,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1646,11 +1667,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1662,14 +1683,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1686,7 +1707,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1702,59 +1723,125 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1344.47</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>97</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>98</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>13</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>99</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>101</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>70</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>66</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>102</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1407.1900000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>104</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>105</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>106</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1883,10 +1970,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -122,6 +131,18 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>CURAM 312.5 MG/5ML PD. FOR ORAL SUSP. 75ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -134,6 +155,9 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -221,9 +245,6 @@
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -302,6 +323,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8526:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -314,16 +347,25 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 1:19 PM</t>
+    <t>Sunday, 20 July, 2025 1:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1096,7 +1138,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1106,14 +1148,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1122,14 +1164,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1139,14 +1181,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1162,7 +1204,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1172,11 +1214,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1188,14 +1230,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1205,14 +1247,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1221,14 +1263,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1238,11 +1280,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1254,14 +1296,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1271,11 +1313,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1287,14 +1329,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1327,7 +1369,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1337,11 +1379,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1353,14 +1395,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1370,11 +1412,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1386,7 +1428,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1403,14 +1445,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1419,14 +1461,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1436,14 +1478,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1452,28 +1494,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1485,14 +1527,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1502,11 +1544,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1518,14 +1560,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1535,14 +1577,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1551,28 +1593,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1584,14 +1626,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1601,14 +1643,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1617,14 +1659,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1634,14 +1676,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1650,14 +1692,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1667,11 +1709,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1683,14 +1725,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1700,14 +1742,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1716,14 +1758,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1733,14 +1775,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1749,14 +1791,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1766,14 +1808,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1782,66 +1824,231 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>100</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>101</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>102</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
-      <c t="s" r="Q32" s="12">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1407.1900000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>105</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>106</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>108</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>109</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>13</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>110</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>112</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>113</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>74</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>114</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>116</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>41</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>74</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>106</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1655.1900000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>118</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>119</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>120</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1980,10 +2187,35 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -365,7 +365,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 1:21 PM</t>
+    <t>Sunday, 20 July, 2025 1:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BETADERM 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -71,9 +83,6 @@
     <t>160.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -365,7 +374,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 1:22 PM</t>
+    <t>Sunday, 20 July, 2025 1:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1039,7 +1048,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1049,14 +1058,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1072,7 +1081,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1082,14 +1091,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1098,14 +1107,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1115,11 +1124,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1131,14 +1140,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1155,7 +1164,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1171,7 +1180,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1181,14 +1190,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1197,14 +1206,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1214,14 +1223,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1237,7 +1246,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1247,14 +1256,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1263,14 +1272,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1280,14 +1289,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1296,14 +1305,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1313,11 +1322,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1329,14 +1338,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1346,11 +1355,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1362,14 +1371,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1379,11 +1388,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1395,14 +1404,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1412,7 +1421,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1435,7 +1444,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1468,7 +1477,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1501,7 +1510,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1534,7 +1543,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1551,7 +1560,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1567,7 +1576,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1584,7 +1593,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1600,24 +1609,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1626,20 +1635,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1650,7 +1659,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1666,7 +1675,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1676,14 +1685,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1692,14 +1701,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1709,11 +1718,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1765,7 +1774,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1782,7 +1791,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1798,7 +1807,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1815,7 +1824,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1831,7 +1840,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1848,7 +1857,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1864,7 +1873,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,14 +1883,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,14 +1899,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1907,14 +1916,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1923,14 +1932,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1940,14 +1949,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1956,31 +1965,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1989,66 +1998,99 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>119</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>44</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>77</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1655.1900000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>118</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>119</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1673.1900000000001</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>121</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>122</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>123</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2212,10 +2254,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -374,7 +374,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 1:24 PM</t>
+    <t>Sunday, 20 July, 2025 1:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t>BRAN 60 CAPS. (MEPACO)</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -173,9 +182,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -251,6 +257,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -374,7 +389,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 1:25 PM</t>
+    <t>Sunday, 20 July, 2025 1:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1114,7 +1129,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1124,14 +1139,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1140,14 +1155,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1157,11 +1172,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1173,14 +1188,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1197,7 +1212,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1213,7 +1228,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1223,14 +1238,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1239,14 +1254,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1256,14 +1271,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1279,7 +1294,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1289,14 +1304,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1305,14 +1320,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1322,14 +1337,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1338,14 +1353,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1355,11 +1370,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1371,14 +1386,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1388,11 +1403,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1404,14 +1419,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1421,7 +1436,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1444,7 +1459,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1454,11 +1469,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1470,7 +1485,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1487,11 +1502,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1503,14 +1518,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1520,11 +1535,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1536,14 +1551,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1553,11 +1568,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1569,14 +1584,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1586,14 +1601,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1602,14 +1617,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1619,11 +1634,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1635,31 +1650,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1668,31 +1683,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1701,14 +1716,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,11 +1733,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1734,14 +1749,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,14 +1766,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1767,14 +1782,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1784,11 +1799,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1800,14 +1815,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,14 +1832,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1850,11 +1865,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1866,7 +1881,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1883,11 +1898,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -1899,14 +1914,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1916,11 +1931,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1932,14 +1947,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1949,11 +1964,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -1965,14 +1980,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1982,14 +1997,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1998,28 +2013,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2031,66 +2046,132 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>120</v>
       </c>
-      <c t="s" r="Q38" s="12">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1673.1900000000001</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>121</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>79</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>122</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>124</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>47</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>79</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>114</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1800.3900000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>126</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>127</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>128</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2259,10 +2340,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>72.6000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
   </si>
   <si>
@@ -248,9 +260,6 @@
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -389,7 +398,7 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 1:31 PM</t>
+    <t>Sunday, 20 July, 2025 1:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1228,24 +1237,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1254,14 +1263,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1278,7 +1287,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1287,14 +1296,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1311,7 +1320,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1320,14 +1329,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1344,7 +1353,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1377,7 +1386,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1393,7 +1402,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1403,11 +1412,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1419,14 +1428,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1436,11 +1445,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1452,14 +1461,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1469,11 +1478,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1485,14 +1494,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1502,11 +1511,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1518,7 +1527,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1535,11 +1544,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1551,14 +1560,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1568,11 +1577,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1584,7 +1593,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1601,11 +1610,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1617,14 +1626,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1634,14 +1643,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1650,14 +1659,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1667,11 +1676,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1683,20 +1692,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1707,7 +1716,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1723,13 +1732,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1756,7 +1765,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1773,7 +1782,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1789,7 +1798,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1799,14 +1808,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1815,14 +1824,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1832,11 +1841,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1848,14 +1857,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1888,7 +1897,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1905,7 +1914,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1921,7 +1930,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1938,7 +1947,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1954,7 +1963,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1971,7 +1980,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1987,7 +1996,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1997,14 +2006,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2013,14 +2022,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2030,14 +2039,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2063,14 +2072,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2079,31 +2088,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2112,66 +2121,99 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>127</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>51</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>36</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1800.3900000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>126</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>127</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>128</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1872.99</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>129</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>130</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>131</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2350,10 +2392,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -236,9 +245,6 @@
     <t>74.00</t>
   </si>
   <si>
-    <t>37.0000</t>
-  </si>
-  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -257,6 +263,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
@@ -398,7 +413,16 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 1:42 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 20 July, 2025 1:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1551,7 +1575,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1600,7 +1624,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1666,7 +1690,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1680,10 +1704,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1692,14 +1716,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1709,11 +1733,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1725,31 +1749,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1758,7 +1782,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1771,15 +1795,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1791,31 +1815,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1824,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1841,11 +1865,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1857,14 +1881,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1874,14 +1898,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1890,14 +1914,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1907,11 +1931,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1923,14 +1947,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1940,14 +1964,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1956,14 +1980,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1973,11 +1997,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1989,7 +2013,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2006,11 +2030,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2022,14 +2046,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2039,11 +2063,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2055,14 +2079,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2072,11 +2096,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2088,14 +2112,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2105,14 +2129,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2121,28 +2145,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2154,66 +2178,165 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>128</v>
       </c>
-      <c t="s" r="Q41" s="12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1872.99</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>129</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>36</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>130</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c t="s" r="Q42" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>132</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>51</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>36</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>122</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>134</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>51</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>36</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>135</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1947.1900000000001</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>137</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>138</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>139</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2397,10 +2520,25 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -422,7 +422,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 1:43 PM</t>
+    <t>Sunday, 20 July, 2025 1:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -350,6 +350,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>118.3700</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -422,7 +431,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 1:53 PM</t>
+    <t>Sunday, 20 July, 2025 2:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2086,7 +2095,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2103,7 +2112,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2195,14 +2204,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2211,31 +2220,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2261,14 +2270,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2277,7 +2286,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2294,49 +2303,82 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>137</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>51</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>36</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>138</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1947.1900000000001</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>137</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>138</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>139</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2065.5599999999999</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>140</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>141</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>142</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2535,10 +2577,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -212,6 +212,18 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -431,7 +443,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 2:07 PM</t>
+    <t>Sunday, 20 July, 2025 2:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1612,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1610,14 +1622,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1626,7 +1638,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1643,11 +1655,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1659,14 +1671,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1676,11 +1688,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1692,7 +1704,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1709,11 +1721,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1725,14 +1737,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1742,14 +1754,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1758,14 +1770,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1775,11 +1787,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1791,31 +1803,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1824,14 +1836,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1841,11 +1853,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1857,28 +1869,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1890,14 +1902,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1907,14 +1919,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1923,14 +1935,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1947,7 +1959,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1996,7 +2008,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2006,11 +2018,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2022,14 +2034,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2039,14 +2051,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2055,14 +2067,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2072,14 +2084,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2088,14 +2100,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2105,14 +2117,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,14 +2133,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2138,14 +2150,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2178,7 +2190,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2211,7 +2223,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2244,7 +2256,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2266,7 +2278,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2277,7 +2289,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2293,7 +2305,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2303,14 +2315,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2319,7 +2331,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2336,49 +2348,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>141</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>51</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>36</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>142</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2065.5599999999999</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>140</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>141</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>142</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2091.5599999999999</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>144</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>145</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>146</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2582,10 +2627,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -44,30 +44,51 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
   </si>
   <si>
     <t>BETADERM 0.1% OINT. 15 GM</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
@@ -95,9 +116,6 @@
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>132.00</t>
   </si>
   <si>
@@ -302,6 +320,18 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -353,6 +383,15 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -371,6 +410,12 @@
     <t>118.3700</t>
   </si>
   <si>
+    <t>TOPIRAMATE 25MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -443,7 +488,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 2:20 PM</t>
+    <t>Sunday, 20 July, 2025 2:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1134,7 +1179,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1150,7 +1195,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1160,14 +1205,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1176,14 +1221,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1193,14 +1238,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1209,14 +1254,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1233,7 +1278,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1249,7 +1294,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1259,14 +1304,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1275,28 +1320,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1308,14 +1353,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1325,14 +1370,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1341,31 +1386,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1374,14 +1419,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1391,14 +1436,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1407,14 +1452,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1424,14 +1469,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1440,14 +1485,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,11 +1502,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1473,14 +1518,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1490,14 +1535,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1506,14 +1551,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1523,11 +1568,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1539,14 +1584,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1556,11 +1601,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1572,14 +1617,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1589,14 +1634,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1605,14 +1650,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1622,14 +1667,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1638,14 +1683,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1655,14 +1700,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1671,14 +1716,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1695,7 +1740,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1711,7 +1756,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1744,7 +1789,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1758,7 +1803,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1770,14 +1815,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1787,14 +1832,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1803,14 +1848,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1820,14 +1865,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1843,13 +1888,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1860,7 +1905,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1876,13 +1921,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1893,7 +1938,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1909,13 +1954,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1942,13 +1987,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1959,7 +2004,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1975,7 +2020,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,11 +2030,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2001,14 +2046,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,11 +2063,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2034,14 +2079,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2051,14 +2096,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,14 +2112,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2091,7 +2136,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2107,7 +2152,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2117,11 +2162,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2133,14 +2178,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2150,14 +2195,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2166,7 +2211,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2183,14 +2228,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,14 +2244,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2239,7 +2284,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2249,14 +2294,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2265,14 +2310,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2282,14 +2327,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2298,31 +2343,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2331,31 +2376,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2364,66 +2409,231 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
         <v>143</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2091.5599999999999</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>13</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>144</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>146</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>147</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>13</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>148</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>150</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>151</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>42</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>152</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>154</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>57</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>42</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>144</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>156</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>57</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>42</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>157</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2245.6399999999999</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>159</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>160</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>161</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2632,10 +2842,35 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -488,7 +488,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 2:24 PM</t>
+    <t>Sunday, 20 July, 2025 2:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>74.00</t>
   </si>
   <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -488,7 +497,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 2:29 PM</t>
+    <t>Sunday, 20 July, 2025 3:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1888,7 +1897,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1921,7 +1930,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1954,13 +1963,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1971,7 +1980,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1987,7 +1996,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2020,13 +2029,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2053,7 +2062,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2063,11 +2072,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2103,7 +2112,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2162,11 +2171,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2178,14 +2187,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2218,7 +2227,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2235,7 +2244,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2251,7 +2260,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2268,7 +2277,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2284,7 +2293,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2317,7 +2326,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2334,7 +2343,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2350,7 +2359,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2393,14 +2402,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2426,14 +2435,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2459,14 +2468,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2475,14 +2484,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2492,14 +2501,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2508,31 +2517,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2541,14 +2550,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2558,14 +2567,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2574,7 +2583,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2591,49 +2600,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>159</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>57</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>42</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>160</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2245.6399999999999</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>159</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>160</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>161</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2604.6399999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>162</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>163</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>164</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2867,10 +2909,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -497,7 +497,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 3:17 PM</t>
+    <t>Sunday, 20 July, 2025 3:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>73.0000</t>
   </si>
   <si>
+    <t>CLEARADERM VAG.DOUCHE 200ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -182,9 +194,6 @@
     <t>CURAM 312.5 MG/5ML PD. FOR ORAL SUSP. 75ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>82.00</t>
   </si>
   <si>
@@ -215,6 +224,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -236,12 +254,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -293,6 +305,18 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -317,9 +341,6 @@
     <t>90.00</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -425,6 +446,18 @@
     <t>29.7000</t>
   </si>
   <si>
+    <t>UNILOXAM 500MG 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -488,6 +521,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>فرش اسنان O2</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -497,7 +539,19 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 3:22 PM</t>
+    <t>معجون سيجنال بالفحم</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 20 July, 2025 3:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1485,7 +1539,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1494,14 +1548,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1518,7 +1572,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1527,14 +1581,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1551,7 +1605,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1567,7 +1621,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1577,14 +1631,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1593,14 +1647,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1610,11 +1664,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1626,14 +1680,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1643,11 +1697,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1666,7 +1720,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1676,11 +1730,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1692,14 +1746,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1709,11 +1763,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1725,14 +1779,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1742,14 +1796,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1758,7 +1812,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1775,14 +1829,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1791,14 +1845,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1808,14 +1862,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1824,14 +1878,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1841,11 +1895,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1857,14 +1911,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1874,11 +1928,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1890,14 +1944,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1907,14 +1961,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1923,14 +1977,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1940,14 +1994,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1956,14 +2010,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1973,11 +2027,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1989,31 +2043,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2022,31 +2076,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2055,14 +2109,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2072,14 +2126,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2088,28 +2142,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2121,31 +2175,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2154,14 +2208,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2171,11 +2225,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2187,14 +2241,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,11 +2258,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2220,14 +2274,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,14 +2291,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2253,14 +2307,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2270,14 +2324,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2286,14 +2340,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2303,11 +2357,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2319,14 +2373,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,11 +2390,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2352,14 +2406,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2369,14 +2423,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2385,14 +2439,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2402,11 +2456,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2418,14 +2472,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2435,14 +2489,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2451,14 +2505,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2468,14 +2522,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2484,14 +2538,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2501,14 +2555,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2517,14 +2571,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2534,14 +2588,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2550,31 +2604,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2583,31 +2637,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2616,66 +2670,297 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>156</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>157</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>13</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>158</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>160</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>161</v>
       </c>
-      <c t="s" r="Q52" s="12">
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>13</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>162</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>164</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>165</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>42</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>166</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2604.6399999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>162</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>163</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>164</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>168</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>49</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>42</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>158</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>170</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>42</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>171</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>173</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>49</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>42</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>174</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>176</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>177</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>42</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>178</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2891.6399999999999</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>180</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>181</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>182</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2914,10 +3199,45 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHROMOCHIT  CAPS</t>
   </si>
   <si>
@@ -551,7 +563,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 3:49 PM</t>
+    <t>Sunday, 20 July, 2025 3:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1456,13 +1468,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1489,24 +1501,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1515,14 +1527,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1572,7 +1584,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1581,14 +1593,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1605,7 +1617,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1614,14 +1626,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1631,14 +1643,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1647,14 +1659,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1671,7 +1683,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1687,7 +1699,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1697,11 +1709,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1713,14 +1725,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1730,11 +1742,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1746,14 +1758,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1763,14 +1775,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1779,14 +1791,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1796,14 +1808,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1812,14 +1824,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1829,14 +1841,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1845,14 +1857,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1862,11 +1874,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1878,14 +1890,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1895,14 +1907,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1911,7 +1923,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1928,11 +1940,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1944,14 +1956,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1961,11 +1973,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1977,7 +1989,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1994,11 +2006,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2010,14 +2022,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2027,14 +2039,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2043,14 +2055,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2060,11 +2072,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2116,7 +2128,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2126,11 +2138,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2142,31 +2154,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2175,28 +2187,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2208,28 +2220,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2241,14 +2253,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2281,7 +2293,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2291,14 +2303,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2307,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2331,7 +2343,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2380,7 +2392,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2390,11 +2402,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2406,14 +2418,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2423,14 +2435,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2439,14 +2451,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2456,14 +2468,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2472,14 +2484,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2489,11 +2501,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2505,14 +2517,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2522,14 +2534,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2538,14 +2550,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2555,14 +2567,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2571,14 +2583,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2588,11 +2600,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2621,11 +2633,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2637,7 +2649,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2654,14 +2666,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2670,14 +2682,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2694,7 +2706,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2727,7 +2739,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2760,7 +2772,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2782,7 +2794,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2793,7 +2805,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2809,24 +2821,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>161</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2835,31 +2847,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>56</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,31 +2880,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2901,20 +2913,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2929,38 +2941,71 @@
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2891.6399999999999</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>180</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
         <v>181</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>46</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>182</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>2910.8400000000001</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>184</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>185</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>186</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3234,10 +3279,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -137,7 +137,7 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>1:4</t>
   </si>
   <si>
     <t>120.00</t>
@@ -563,7 +563,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 3:50 PM</t>
+    <t>Sunday, 20 July, 2025 3:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -137,7 +137,7 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:4</t>
+    <t>1:3</t>
   </si>
   <si>
     <t>120.00</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -563,7 +563,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 3:56 PM</t>
+    <t>Sunday, 20 July, 2025 4:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHROMOCHIT  CAPS</t>
   </si>
   <si>
@@ -230,9 +242,6 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -338,6 +347,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
   </si>
   <si>
@@ -356,9 +374,6 @@
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
     <t>79.2000</t>
   </si>
   <si>
@@ -563,7 +578,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 4:07 PM</t>
+    <t>Sunday, 20 July, 2025 4:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1501,13 +1516,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1518,7 +1533,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1534,24 +1549,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1560,14 +1575,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1617,7 +1632,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1626,14 +1641,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1650,7 +1665,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1659,14 +1674,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1676,14 +1691,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1692,14 +1707,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1716,7 +1731,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1732,7 +1747,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1742,11 +1757,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1758,14 +1773,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1775,11 +1790,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1791,14 +1806,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1808,14 +1823,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1831,7 +1846,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1841,14 +1856,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1857,14 +1872,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1874,14 +1889,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1897,7 +1912,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1907,11 +1922,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1923,14 +1938,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1940,14 +1955,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1996,7 +2011,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2043,7 +2058,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2055,14 +2070,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2072,14 +2087,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2095,7 +2110,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2128,7 +2143,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2138,11 +2153,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2154,14 +2169,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2194,13 +2209,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2211,7 +2226,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2227,13 +2242,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2241,10 +2256,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2253,7 +2268,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2266,15 +2281,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2286,20 +2301,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2307,7 +2322,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2319,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2352,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2369,11 +2384,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2385,14 +2400,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2402,14 +2417,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2418,14 +2433,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2435,11 +2450,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2451,14 +2466,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2468,14 +2483,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2484,14 +2499,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2501,11 +2516,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2517,14 +2532,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2534,14 +2549,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2550,14 +2565,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2567,14 +2582,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2583,14 +2598,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2600,7 +2615,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2623,7 +2638,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2640,7 +2655,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2656,7 +2671,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,11 +2681,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2682,14 +2697,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2699,14 +2714,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2715,14 +2730,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2732,11 +2747,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2748,14 +2763,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2765,11 +2780,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2781,14 +2796,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2798,14 +2813,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2814,28 +2829,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2847,31 +2862,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>165</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2880,20 +2895,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2904,7 +2919,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2920,24 +2935,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2946,66 +2961,132 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>182</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>57</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>50</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>183</v>
       </c>
-      <c t="s" r="Q60" s="12">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>2910.8400000000001</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>184</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>185</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
         <v>186</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>50</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>187</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3181.8400000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>189</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>190</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>191</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3284,10 +3365,20 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -269,6 +269,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -308,6 +317,15 @@
     <t>74.00</t>
   </si>
   <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>HERO BABY DIGEST MILK 400 GM</t>
   </si>
   <si>
@@ -578,7 +596,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 4:52 PM</t>
+    <t>Sunday, 20 July, 2025 5:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1945,7 +1963,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1955,14 +1973,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1971,14 +1989,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1988,14 +2006,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2044,7 +2062,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2091,7 +2109,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2103,14 +2121,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2120,14 +2138,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2143,13 +2161,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2160,7 +2178,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2176,7 +2194,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2186,11 +2204,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2202,14 +2220,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2219,11 +2237,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2235,14 +2253,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2275,13 +2293,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2292,7 +2310,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2308,13 +2326,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2322,10 +2340,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2334,7 +2352,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2347,15 +2365,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2367,28 +2385,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2407,7 +2425,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2417,14 +2435,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2433,14 +2451,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,11 +2468,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,14 +2501,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2499,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2516,11 +2534,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2556,7 +2574,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2572,7 +2590,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2605,7 +2623,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2622,7 +2640,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2638,7 +2656,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2655,7 +2673,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2671,7 +2689,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2681,11 +2699,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2697,7 +2715,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2813,11 +2831,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2846,11 +2864,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2879,14 +2897,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,28 +2913,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2928,31 +2946,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>170</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2968,7 +2986,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2978,14 +2996,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2994,7 +3012,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3034,7 +3052,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3044,49 +3062,115 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>188</v>
       </c>
-      <c t="s" r="Q62" s="12">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>57</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>50</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>189</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3181.8400000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>189</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>190</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>191</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>192</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>50</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>193</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3286.7800000000002</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>195</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>196</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>197</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3375,10 +3459,20 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -65,57 +65,63 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>BRAN 60 CAPS. (MEPACO)</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>BRAN 60 CAPS. (MEPACO)</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
     <t>132.00</t>
   </si>
   <si>
@@ -137,9 +143,6 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -149,99 +152,99 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>72.6000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>CLEARADERM VAG.DOUCHE 200ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>CURAM 312.5 MG/5ML PD. FOR ORAL SUSP. 75ML</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>72.6000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>CLEARADERM VAG.DOUCHE 200ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>CURAM 312.5 MG/5ML PD. FOR ORAL SUSP. 75ML</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -563,7 +566,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>9.6600</t>
   </si>
   <si>
     <t>فرش اسنان O2</t>
@@ -596,7 +599,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 5:04 PM</t>
+    <t>Sunday, 20 July, 2025 5:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1287,7 +1290,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1296,14 +1299,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1313,11 +1316,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1329,7 +1332,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1346,11 +1349,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1362,7 +1365,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1379,11 +1382,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1395,7 +1398,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1412,11 +1415,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1428,14 +1431,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1445,11 +1448,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1461,14 +1464,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1478,11 +1481,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1494,14 +1497,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1511,11 +1514,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1527,14 +1530,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1544,11 +1547,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1560,28 +1563,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1593,7 +1596,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1610,11 +1613,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1626,14 +1629,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1732,7 +1735,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1808,7 +1811,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1831,7 +1834,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1841,11 +1844,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1857,7 +1860,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1874,11 +1877,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1890,14 +1893,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1911,7 +1914,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1923,7 +1926,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1940,11 +1943,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1956,14 +1959,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,11 +1976,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1989,14 +1992,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2006,11 +2009,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2022,7 +2025,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2039,11 +2042,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2055,7 +2058,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2072,11 +2075,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2088,14 +2091,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2105,11 +2108,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2121,14 +2124,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2138,11 +2141,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2154,28 +2157,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2187,14 +2190,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,11 +2207,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2220,7 +2223,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2237,11 +2240,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2253,14 +2256,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,11 +2273,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2286,7 +2289,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2303,11 +2306,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,11 +2339,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2352,28 +2355,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2385,7 +2388,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2398,11 +2401,11 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2418,14 +2421,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,11 +2438,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2451,14 +2454,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2468,11 +2471,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2484,14 +2487,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,11 +2504,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2517,14 +2520,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,11 +2537,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2550,14 +2553,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,11 +2570,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2583,14 +2586,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2600,11 +2603,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2616,7 +2619,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2633,11 +2636,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2649,14 +2652,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,11 +2669,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2682,7 +2685,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2699,11 +2702,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2715,14 +2718,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2735,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2748,14 +2751,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,11 +2768,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2781,14 +2784,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,11 +2801,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2814,7 +2817,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2831,11 +2834,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2847,7 +2850,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2864,11 +2867,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2880,14 +2883,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2897,11 +2900,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2913,14 +2916,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2930,11 +2933,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2946,14 +2949,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2963,11 +2966,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>64</v>
@@ -2979,28 +2982,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3012,31 +3015,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>176</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3045,7 +3048,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3058,15 +3061,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>64</v>
@@ -3078,28 +3081,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3111,28 +3114,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3140,13 +3143,13 @@
     </row>
     <row r="65" ht="24.75" customHeight="1">
       <c r="P65" s="13">
-        <v>3286.7800000000002</v>
+        <v>3275.96</v>
       </c>
       <c r="Q65" s="13"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c t="s" r="A66" s="14">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -3154,13 +3157,13 @@
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c t="s" r="G66" s="15">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="16"/>
       <c t="s" r="K66" s="17">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -599,7 +599,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 5:37 PM</t>
+    <t>Sunday, 20 July, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -239,6 +251,15 @@
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -518,13 +539,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>8:3</t>
+    <t>8:2</t>
   </si>
   <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -542,9 +563,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -566,7 +584,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>9.6600</t>
+    <t>11.6600</t>
+  </si>
+  <si>
+    <t>5:1</t>
   </si>
   <si>
     <t>فرش اسنان O2</t>
@@ -599,7 +620,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 6:05 PM</t>
+    <t>Sunday, 20 July, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1455,7 +1476,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1504,7 +1525,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1514,11 +1535,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1530,14 +1551,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1554,7 +1575,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1570,13 +1591,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1587,7 +1608,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1603,24 +1624,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1629,14 +1650,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1646,11 +1667,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1662,14 +1683,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1686,7 +1707,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1695,14 +1716,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1719,7 +1740,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1728,14 +1749,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1745,14 +1766,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1761,14 +1782,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1785,7 +1806,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1801,7 +1822,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1811,11 +1832,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1827,14 +1848,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1844,11 +1865,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1860,14 +1881,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1877,14 +1898,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1893,14 +1914,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1910,11 +1931,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1926,14 +1947,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1943,11 +1964,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1959,14 +1980,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1976,11 +1997,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1992,14 +2013,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2009,11 +2030,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2025,14 +2046,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2042,11 +2063,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2058,14 +2079,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2075,14 +2096,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2091,14 +2112,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2108,11 +2129,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2124,14 +2145,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2141,11 +2162,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2157,28 +2178,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2190,14 +2211,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2207,14 +2228,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2223,31 +2244,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2256,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2296,7 +2317,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2329,7 +2350,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2339,11 +2360,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2355,31 +2376,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2388,31 +2409,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2421,28 +2442,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2454,28 +2475,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2487,14 +2508,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2504,14 +2525,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2560,7 +2581,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2570,14 +2591,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2586,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2626,7 +2647,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2636,14 +2657,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2652,14 +2673,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2669,11 +2690,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2685,14 +2706,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2702,14 +2723,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2718,14 +2739,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2735,14 +2756,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2751,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2768,11 +2789,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2784,7 +2805,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2801,14 +2822,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2834,11 +2855,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2867,14 +2888,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2900,11 +2921,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2923,7 +2944,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2933,11 +2954,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2949,14 +2970,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2966,14 +2987,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2982,28 +3003,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3015,31 +3036,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>130</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3055,24 +3076,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3081,7 +3102,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3094,18 +3115,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3114,20 +3135,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3138,42 +3159,108 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>196</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>21</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>55</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>197</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3275.96</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>196</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>197</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>198</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>199</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>200</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>55</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>201</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3378.79</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>203</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>204</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>205</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3472,10 +3559,20 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 6:07 PM</t>
+    <t>Sunday, 20 July, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 6:10 PM</t>
+    <t>Sunday, 20 July, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -248,6 +248,21 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -380,6 +395,9 @@
     <t>52.5000</t>
   </si>
   <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -539,9 +557,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>8:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -561,9 +576,6 @@
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
   </si>
   <si>
     <t>192.0000</t>
@@ -1855,7 +1867,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1865,11 +1877,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1881,14 +1893,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1898,11 +1910,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1914,14 +1926,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1931,11 +1943,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1947,14 +1959,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1964,14 +1976,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1980,14 +1992,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1997,7 +2009,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2020,7 +2032,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2053,7 +2065,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2063,11 +2075,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2079,14 +2091,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,11 +2108,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2119,7 +2131,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2152,7 +2164,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2162,14 +2174,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,11 +2207,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2228,11 +2240,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2257,7 +2269,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2284,7 +2296,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2298,10 +2310,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2310,31 +2322,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,11 +2372,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2376,14 +2388,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2393,11 +2405,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2409,14 +2421,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2426,11 +2438,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2442,28 +2454,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2475,31 +2487,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,14 +2537,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2541,28 +2553,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2574,31 +2586,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,11 +2636,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2657,11 +2669,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2690,14 +2702,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,11 +2768,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2772,14 +2784,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,11 +2801,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2855,11 +2867,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2871,14 +2883,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2888,11 +2900,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2904,14 +2916,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2921,14 +2933,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2944,7 +2956,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2954,14 +2966,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,14 +2982,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2987,14 +2999,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3020,14 +3032,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,31 +3081,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,31 +3114,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3135,28 +3147,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>68</v>
@@ -3168,14 +3180,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3185,11 +3197,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3201,14 +3213,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3218,49 +3230,148 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>197</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>12</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>55</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>198</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>200</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>21</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>55</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>201</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
         <v>202</v>
       </c>
-      <c t="s" r="Q66" s="12">
+      <c t="s" r="Q68" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3378.79</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>203</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>204</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>55</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>205</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3467.8899999999999</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>207</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>208</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>209</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3569,10 +3680,25 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -131,9 +143,6 @@
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>132.00</t>
   </si>
   <si>
@@ -509,6 +518,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
     <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
@@ -632,7 +650,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 6:12 PM</t>
+    <t>Sunday, 20 July, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1372,7 +1390,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1382,11 +1400,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1398,14 +1416,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1415,11 +1433,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1431,7 +1449,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1448,11 +1466,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1464,14 +1482,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1521,7 +1539,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1537,7 +1555,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1547,11 +1565,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1563,14 +1581,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1603,7 +1621,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1613,14 +1631,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1629,31 +1647,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1662,20 +1680,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1686,7 +1704,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1702,7 +1720,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1735,7 +1753,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1745,14 +1763,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1761,14 +1779,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1778,14 +1796,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1801,7 +1819,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1818,7 +1836,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1834,7 +1852,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1844,14 +1862,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1860,14 +1878,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1900,7 +1918,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1910,11 +1928,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1926,14 +1944,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1943,11 +1961,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1959,14 +1977,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1976,11 +1994,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1999,7 +2017,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2009,7 +2027,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2032,7 +2050,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2042,14 +2060,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2065,7 +2083,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2075,14 +2093,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2091,14 +2109,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2108,14 +2126,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2131,7 +2149,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2148,7 +2166,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2164,7 +2182,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2174,14 +2192,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2190,14 +2208,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2207,14 +2225,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2263,7 +2281,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2296,7 +2314,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2310,7 +2328,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2322,28 +2340,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2362,13 +2380,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2379,7 +2397,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2395,7 +2413,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2428,7 +2446,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2438,11 +2456,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2454,14 +2472,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2471,14 +2489,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2487,14 +2505,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2504,14 +2522,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2527,7 +2545,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2560,13 +2578,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2577,7 +2595,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2593,13 +2611,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2607,7 +2625,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2619,28 +2637,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2652,14 +2670,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,11 +2687,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2685,14 +2703,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2709,7 +2727,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2725,7 +2743,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2735,14 +2753,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2751,14 +2769,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2768,11 +2786,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2784,14 +2802,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2824,7 +2842,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2841,7 +2859,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2857,7 +2875,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2874,7 +2892,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2890,7 +2908,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2923,7 +2941,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2940,7 +2958,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2956,7 +2974,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2966,11 +2984,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2982,7 +3000,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2999,14 +3017,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3015,14 +3033,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3032,11 +3050,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3048,14 +3066,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3065,14 +3083,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3081,14 +3099,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3098,14 +3116,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3121,7 +3139,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3131,11 +3149,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3147,14 +3165,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3164,14 +3182,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3193,7 +3211,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3220,24 +3238,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>196</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3246,20 +3264,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3270,7 +3288,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3292,18 +3310,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>202</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3319,59 +3337,125 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>206</v>
       </c>
-      <c t="s" r="Q69" s="12">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>21</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>58</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>207</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3467.8899999999999</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>207</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>208</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>209</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>210</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>58</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>211</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3745.3899999999999</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>213</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>214</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>215</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3695,10 +3779,20 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -650,7 +650,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 6:13 PM</t>
+    <t>Sunday, 20 July, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -434,6 +434,12 @@
     <t>13.2000</t>
   </si>
   <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
@@ -629,6 +635,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -641,16 +656,13 @@
     <t>معجون سيجنال بالفحم</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 6:21 PM</t>
+    <t>Sunday, 20 July, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2644,24 +2656,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2677,21 +2689,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2710,7 +2722,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,11 +2732,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2736,14 +2748,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2753,14 +2765,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2769,14 +2781,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,14 +2798,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,11 +2831,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2835,14 +2847,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2852,11 +2864,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2868,14 +2880,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2885,14 +2897,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2901,14 +2913,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,14 +2930,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,14 +2963,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2967,14 +2979,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2984,14 +2996,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3017,14 +3029,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3033,14 +3045,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3050,14 +3062,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3073,7 +3085,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3083,11 +3095,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3099,14 +3111,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3116,11 +3128,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3132,7 +3144,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3182,14 +3194,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3198,14 +3210,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3215,14 +3227,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,14 +3243,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3248,14 +3260,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3271,24 +3283,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3297,14 +3309,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3314,14 +3326,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>202</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3330,14 +3342,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3347,14 +3359,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>71</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3380,14 +3392,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3396,14 +3408,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3413,49 +3425,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3745.3899999999999</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>211</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>21</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>58</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>212</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>213</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>214</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>209</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>58</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
         <v>215</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3840.3899999999999</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>217</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>218</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>219</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3789,10 +3867,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -89,12 +101,18 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
@@ -599,6 +617,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -662,7 +689,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 6:22 PM</t>
+    <t>Sunday, 20 July, 2025 6:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1353,7 +1380,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1362,14 +1389,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1379,14 +1406,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1419,7 +1446,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1435,7 +1462,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1452,7 +1479,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1468,7 +1495,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1485,7 +1512,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1501,7 +1528,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1518,7 +1545,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1534,7 +1561,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1544,14 +1571,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1560,14 +1587,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1577,14 +1604,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1593,14 +1620,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1610,14 +1637,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1626,14 +1653,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1643,11 +1670,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1659,14 +1686,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1676,14 +1703,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1692,28 +1719,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1725,14 +1752,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1742,14 +1769,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1758,20 +1785,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1782,7 +1809,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1798,7 +1825,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1808,14 +1835,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1824,14 +1851,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1841,14 +1868,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1857,14 +1884,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1874,14 +1901,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1897,7 +1924,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1907,11 +1934,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1923,14 +1950,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1940,14 +1967,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1956,14 +1983,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1973,11 +2000,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1989,14 +2016,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2006,11 +2033,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2022,14 +2049,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2039,11 +2066,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2055,14 +2082,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2072,11 +2099,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2095,7 +2122,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2112,7 +2139,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2128,7 +2155,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2138,11 +2165,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2154,14 +2181,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2171,14 +2198,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2187,14 +2214,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2204,7 +2231,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2227,7 +2254,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2237,14 +2264,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2253,14 +2280,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2270,11 +2297,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2286,14 +2313,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2303,14 +2330,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2326,7 +2353,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2359,7 +2386,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2373,7 +2400,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2385,28 +2412,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2418,14 +2445,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2435,14 +2462,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2458,13 +2485,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2475,7 +2502,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2491,7 +2518,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2501,14 +2528,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2517,14 +2544,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2534,14 +2561,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2550,14 +2577,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2567,14 +2594,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2583,14 +2610,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2600,14 +2627,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2623,13 +2650,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2640,7 +2667,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2656,7 +2683,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2666,14 +2693,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2682,28 +2709,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2715,14 +2742,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2732,14 +2759,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2748,28 +2775,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2788,7 +2815,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2798,14 +2825,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2814,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2831,11 +2858,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2847,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2864,14 +2891,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2880,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2897,11 +2924,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2913,14 +2940,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2937,7 +2964,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2953,7 +2980,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2986,7 +3013,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3003,7 +3030,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3019,7 +3046,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3052,7 +3079,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3069,7 +3096,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3085,7 +3112,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3095,11 +3122,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3111,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3128,14 +3155,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3144,14 +3171,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3161,11 +3188,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>112</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3177,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3194,14 +3221,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3210,14 +3237,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3227,14 +3254,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3250,7 +3277,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3260,14 +3287,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3276,14 +3303,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3293,14 +3320,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>71</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3322,7 +3349,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3333,7 +3360,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3349,24 +3376,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3382,24 +3409,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3408,31 +3435,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3448,24 +3475,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>213</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3481,13 +3508,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3498,42 +3525,141 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3840.3899999999999</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>217</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
         <v>218</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>64</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>219</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>220</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>25</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>64</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>221</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>223</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>218</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>64</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>224</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4007.1599999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>226</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>227</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>228</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3877,10 +4003,25 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -77,153 +77,156 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>BRAN 60 CAPS. (MEPACO)</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>72.6000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>CLEARADERM VAG.DOUCHE 200ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>141.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>BRAN 60 CAPS. (MEPACO)</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>72.6000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>CLEARADERM VAG.DOUCHE 200ML</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -305,10 +308,7 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>15.8400</t>
+    <t>5:2</t>
   </si>
   <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
@@ -413,9 +413,6 @@
     <t>IMIPRAMINE 25MG 50 TAB.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>52.50</t>
   </si>
   <si>
@@ -587,6 +584,9 @@
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -623,7 +623,7 @@
     <t>189.00</t>
   </si>
   <si>
-    <t>94.5000</t>
+    <t>189.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -647,10 +647,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>11.6600</t>
-  </si>
-  <si>
-    <t>5:1</t>
+    <t>23.6600</t>
+  </si>
+  <si>
+    <t>11:1</t>
   </si>
   <si>
     <t>فرش اسنان O2</t>
@@ -689,7 +689,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 6:24 PM</t>
+    <t>Sunday, 20 July, 2025 6:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1413,7 +1413,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1422,14 +1422,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1439,11 +1439,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1472,11 +1472,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1505,11 +1505,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1538,11 +1538,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1571,11 +1571,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1604,11 +1604,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1620,14 +1620,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1637,11 +1637,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1670,11 +1670,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1686,14 +1686,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1703,11 +1703,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1719,14 +1719,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1858,7 +1858,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1868,11 +1868,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1884,14 +1884,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1901,14 +1901,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1934,11 +1934,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1950,14 +1950,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1983,14 +1983,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2033,11 +2033,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2049,14 +2049,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2066,11 +2066,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2099,11 +2099,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2115,14 +2115,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2132,11 +2132,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2148,14 +2148,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2165,14 +2165,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2188,7 +2188,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2221,7 +2221,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2287,7 +2287,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2419,7 +2419,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2452,7 +2452,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2485,7 +2485,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2518,7 +2518,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2584,7 +2584,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2594,11 +2594,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2643,14 +2643,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2676,14 +2676,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2693,11 +2693,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2709,14 +2709,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2726,11 +2726,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2742,14 +2742,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2759,11 +2759,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2792,11 +2792,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2808,14 +2808,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2841,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2874,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,11 +2891,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -2907,14 +2907,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2940,14 +2940,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2957,11 +2957,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2973,14 +2973,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2990,11 +2990,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3023,11 +3023,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3039,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3056,11 +3056,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3089,11 +3089,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3105,14 +3105,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3122,11 +3122,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3138,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3155,14 +3155,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3188,11 +3188,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3204,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3221,11 +3221,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3270,14 +3270,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3287,11 +3287,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3303,14 +3303,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3320,14 +3320,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3336,14 +3336,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3353,14 +3353,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3369,14 +3369,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3386,14 +3386,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,14 +3402,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3419,14 +3419,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3435,31 +3435,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,14 +3468,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3485,14 +3485,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>213</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3501,14 +3501,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3518,14 +3518,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>77</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3534,14 +3534,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3551,14 +3551,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3567,14 +3567,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3584,11 +3584,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>18</v>
@@ -3600,14 +3600,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3617,49 +3617,82 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4007.1599999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>223</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>218</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>64</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>224</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4238.5</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
         <v>226</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
         <v>227</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
         <v>228</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4018,10 +4051,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -491,15 +491,9 @@
     <t>RELAXON 30 CAP</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
-    <t>22.7700</t>
-  </si>
-  <si>
     <t>SELGON 20MG 20 TABS.</t>
   </si>
   <si>
@@ -623,7 +617,7 @@
     <t>189.00</t>
   </si>
   <si>
-    <t>189.0000</t>
+    <t>94.5000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -644,6 +638,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -665,9 +671,6 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -689,7 +692,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 6:25 PM</t>
+    <t>Sunday, 20 July, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2914,7 +2917,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,14 +2927,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2940,14 +2943,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2957,11 +2960,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2973,7 +2976,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2990,11 +2993,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3006,7 +3009,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3023,11 +3026,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3039,7 +3042,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3056,11 +3059,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3072,7 +3075,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3089,11 +3092,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>18</v>
@@ -3105,7 +3108,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3122,11 +3125,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3138,7 +3141,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3155,11 +3158,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>52</v>
@@ -3171,7 +3174,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3192,7 +3195,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3204,7 +3207,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3221,11 +3224,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3237,7 +3240,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3270,7 +3273,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3303,7 +3306,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3320,11 +3323,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3336,7 +3339,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3353,11 +3356,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3369,14 +3372,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3386,11 +3389,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>18</v>
@@ -3402,14 +3405,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3419,14 +3422,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3435,7 +3438,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3456,7 +3459,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>78</v>
@@ -3468,14 +3471,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3485,11 +3488,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3501,7 +3504,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3518,14 +3521,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>212</v>
-      </c>
-      <c t="s" r="Q73" s="12">
-        <v>213</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3534,14 +3537,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3551,14 +3554,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>78</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3567,14 +3570,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3584,14 +3587,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3600,14 +3603,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3617,11 +3620,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>18</v>
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3650,49 +3653,82 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4238.5</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>224</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>212</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>64</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>225</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>226</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c t="s" r="Q78" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4175.7700000000004</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
         <v>227</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
         <v>228</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>229</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4056,10 +4092,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -326,6 +326,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>8:4</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
   </si>
   <si>
@@ -692,7 +704,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 7:02 PM</t>
+    <t>Sunday, 20 July, 2025 7:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2257,7 +2269,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2267,14 +2279,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2283,14 +2295,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2300,14 +2312,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2333,14 +2345,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2349,14 +2361,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2366,14 +2378,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2382,7 +2394,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2399,11 +2411,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2432,11 +2444,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2448,7 +2460,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2465,11 +2477,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2481,7 +2493,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2494,15 +2506,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2514,31 +2526,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2564,11 +2576,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2580,14 +2592,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2597,11 +2609,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2613,14 +2625,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2630,14 +2642,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2646,14 +2658,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2663,14 +2675,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2679,14 +2691,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2696,11 +2708,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>18</v>
@@ -2712,31 +2724,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2745,31 +2757,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2778,31 +2790,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2811,28 +2823,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2861,7 +2873,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2884,7 +2896,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2894,14 +2906,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2910,14 +2922,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2927,14 +2939,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2960,14 +2972,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2983,7 +2995,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2993,11 +3005,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3026,14 +3038,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3042,14 +3054,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3059,14 +3071,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3075,14 +3087,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3092,14 +3104,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3108,14 +3120,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3125,14 +3137,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3158,14 +3170,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3174,14 +3186,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3191,14 +3203,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3224,11 +3236,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3257,11 +3269,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3273,14 +3285,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3290,14 +3302,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3306,14 +3318,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3323,11 +3335,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>18</v>
@@ -3339,14 +3351,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3356,14 +3368,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3372,14 +3384,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3396,7 +3408,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3412,7 +3424,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3422,14 +3434,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3455,14 +3467,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3471,31 +3483,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3511,7 +3523,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3521,14 +3533,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>212</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3554,14 +3566,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3570,14 +3582,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3587,14 +3599,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>78</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3603,14 +3615,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3620,14 +3632,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3636,14 +3648,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3653,11 +3665,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3669,14 +3681,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3686,49 +3698,82 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4175.7700000000004</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>227</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>228</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>216</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>64</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>229</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>4187.29</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
+        <v>231</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>232</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>233</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4097,10 +4142,15 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -704,7 +704,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 7:03 PM</t>
+    <t>Sunday, 20 July, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -269,9 +281,6 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>9:2</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -506,6 +515,15 @@
     <t>69.00</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>SELGON 20MG 20 TABS.</t>
   </si>
   <si>
@@ -530,9 +548,6 @@
     <t>STATURIC 40MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
     <t>93.0000</t>
   </si>
   <si>
@@ -656,36 +671,48 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>23.6600</t>
+  </si>
+  <si>
+    <t>11:1</t>
+  </si>
+  <si>
+    <t>فرش اسنان O2</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>كريم فيبكس الازرق</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>23.6600</t>
-  </si>
-  <si>
-    <t>11:1</t>
-  </si>
-  <si>
-    <t>فرش اسنان O2</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>كريم فيبكس الازرق</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
+    <t xml:space="preserve">كريم للبشره العاديه </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -704,7 +731,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 7:06 PM</t>
+    <t>Sunday, 20 July, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1428,7 +1455,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1461,7 +1488,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1477,7 +1504,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1487,11 +1514,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1503,14 +1530,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1520,14 +1547,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1536,14 +1563,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1553,11 +1580,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>18</v>
@@ -1569,14 +1596,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1586,11 +1613,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1602,7 +1629,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1619,11 +1646,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1635,14 +1662,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1675,7 +1702,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1685,14 +1712,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1701,14 +1728,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1791,7 +1818,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1807,13 +1834,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1824,7 +1851,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1840,24 +1867,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1866,14 +1893,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1923,7 +1950,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1932,14 +1959,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1956,7 +1983,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1965,14 +1992,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1982,14 +2009,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1998,14 +2025,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2022,7 +2049,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2038,7 +2065,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2071,7 +2098,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2081,11 +2108,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2097,14 +2124,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2114,11 +2141,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2130,14 +2157,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2147,11 +2174,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2170,7 +2197,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2180,14 +2207,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2213,14 +2240,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2236,7 +2263,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2246,14 +2273,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2279,11 +2306,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2295,14 +2322,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2319,7 +2346,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2335,7 +2362,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2352,7 +2379,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2368,7 +2395,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2378,14 +2405,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2411,14 +2438,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2467,7 +2494,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2500,7 +2527,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2514,7 +2541,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2526,28 +2553,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2566,13 +2593,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2583,7 +2610,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2599,7 +2626,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2632,7 +2659,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2665,7 +2692,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2675,14 +2702,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2691,14 +2718,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2708,14 +2735,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2731,7 +2758,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2764,13 +2791,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2781,7 +2808,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2797,24 +2824,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2823,31 +2850,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2856,28 +2883,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2906,11 +2933,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2922,14 +2949,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2946,7 +2973,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2962,7 +2989,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2976,10 +3003,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2988,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3009,10 +3036,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3021,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3038,11 +3065,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3078,7 +3105,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3094,7 +3121,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3127,7 +3154,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3137,11 +3164,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>18</v>
@@ -3153,14 +3180,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3170,11 +3197,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3186,14 +3213,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3203,14 +3230,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3219,14 +3246,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3236,7 +3263,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3259,7 +3286,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3276,7 +3303,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3292,7 +3319,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3302,11 +3329,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3318,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3335,14 +3362,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3351,7 +3378,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3368,14 +3395,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3384,14 +3411,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3401,14 +3428,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3417,14 +3444,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3434,11 +3461,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3450,14 +3477,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3467,14 +3494,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3483,14 +3510,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3500,14 +3527,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3523,24 +3550,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3549,31 +3576,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>216</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3582,31 +3609,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>219</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3615,31 +3642,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3648,31 +3675,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3681,31 +3708,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3714,20 +3741,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3735,45 +3762,144 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>4187.29</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>230</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
         <v>231</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>68</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
         <v>232</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>233</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c t="s" r="Q80" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>234</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>75</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>68</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>235</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>237</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>228</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>68</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>238</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4255.0299999999997</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>240</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>241</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>242</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4147,10 +4273,25 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -476,6 +476,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
@@ -731,7 +740,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 7:18 PM</t>
+    <t>Sunday, 20 July, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2890,13 +2899,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2904,10 +2913,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2916,28 +2925,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2949,14 +2958,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2966,11 +2975,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3006,7 +3015,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3022,7 +3031,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3036,10 +3045,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3098,11 +3107,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3114,14 +3123,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3154,7 +3163,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,14 +3173,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3197,14 +3206,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3220,7 +3229,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3237,7 +3246,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3253,7 +3262,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3270,7 +3279,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3286,7 +3295,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3303,7 +3312,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3319,7 +3328,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3329,14 +3338,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3362,7 +3371,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3385,7 +3394,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,11 +3404,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3411,14 +3420,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,14 +3437,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3461,11 +3470,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3484,7 +3493,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3501,7 +3510,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3517,7 +3526,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3527,14 +3536,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3567,7 +3576,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3583,7 +3592,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,31 +3618,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3666,7 +3675,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>223</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3715,7 +3724,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>226</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>82</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3748,7 +3757,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3758,14 +3767,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3795,7 +3804,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>18</v>
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3847,7 +3856,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3868,38 +3877,71 @@
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4255.0299999999997</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>240</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>231</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>68</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
         <v>241</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
         <v>242</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c t="s" r="Q83" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4390.0299999999997</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>243</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>244</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>245</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4288,10 +4330,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -473,7 +473,7 @@
     <t>MELANTHENOL GEL 40 GM</t>
   </si>
   <si>
-    <t>60.0000</t>
+    <t>120.0000</t>
   </si>
   <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
@@ -704,43 +704,46 @@
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريم للبشره العاديه </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال بالفحم</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كريم للبشره العاديه </t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>معجون سيجنال بالفحم</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 7:20 PM</t>
+    <t>Sunday, 20 July, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2866,7 +2869,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2883,7 +2886,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3790,7 +3793,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3800,14 +3803,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3889,7 +3892,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3899,11 +3902,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -3911,13 +3914,13 @@
     </row>
     <row r="84" ht="25.5" customHeight="1">
       <c r="P84" s="13">
-        <v>4390.0299999999997</v>
+        <v>4485.0299999999997</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
     <row r="85" ht="16.5" customHeight="1">
       <c t="s" r="A85" s="14">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -3925,13 +3928,13 @@
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c t="s" r="G85" s="15">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
       <c r="J85" s="16"/>
       <c t="s" r="K85" s="17">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L85" s="17"/>
       <c r="M85" s="17"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -674,6 +674,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>ايفا كريم 170 جم</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -743,7 +749,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 7:22 PM</t>
+    <t>Sunday, 20 July, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3694,7 +3700,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3704,14 +3710,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3720,7 +3726,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3737,14 +3743,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>226</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3753,14 +3759,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3770,14 +3776,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>82</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3786,14 +3792,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3803,11 +3809,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>82</v>
@@ -3819,14 +3825,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>49</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3836,14 +3842,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3852,14 +3858,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3869,11 +3875,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>18</v>
@@ -3885,14 +3891,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3902,49 +3908,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4485.0299999999997</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>242</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>243</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>68</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
         <v>244</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
         <v>245</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c t="s" r="Q84" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4545.0299999999997</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
         <v>246</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>247</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>248</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4338,10 +4377,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACYCLOVIR-MISR 5% TOPICAL CREAM 10 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS 10MG 30 TAB.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -65,9 +77,6 @@
     <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
@@ -347,6 +356,15 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
   </si>
   <si>
@@ -506,9 +524,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -533,6 +548,9 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>RONIDERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
     <t>SELGON 20MG 20 TABS.</t>
   </si>
   <si>
@@ -611,6 +629,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>UNIZITHRIN 200MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>62.50</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
     <t>URGINAFECT 10MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -638,13 +665,16 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8526:0</t>
+    <t>8524:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
@@ -680,6 +710,21 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -698,12 +743,12 @@
     <t>11:1</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>فرش اسنان O2</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -740,16 +785,13 @@
     <t>معجون سيجنال بالفحم</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 7:38 PM</t>
+    <t>Sunday, 20 July, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1407,7 +1449,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1416,14 +1458,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1433,14 +1475,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1456,7 +1498,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1466,14 +1508,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1482,14 +1524,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1499,14 +1541,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1515,14 +1557,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1532,14 +1574,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1548,14 +1590,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1572,7 +1614,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1588,7 +1630,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1605,7 +1647,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1621,7 +1663,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1638,7 +1680,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1654,7 +1696,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1671,7 +1713,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1687,7 +1729,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1704,7 +1746,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1720,7 +1762,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1730,14 +1772,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1746,14 +1788,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1770,7 +1812,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1786,7 +1828,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1796,14 +1838,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1812,14 +1854,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1829,14 +1871,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1845,14 +1887,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1862,14 +1904,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1878,31 +1920,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1911,20 +1953,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1935,7 +1977,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1951,7 +1993,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1961,14 +2003,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1977,14 +2019,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1994,14 +2036,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2010,14 +2052,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2027,14 +2069,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2050,7 +2092,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2067,7 +2109,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2083,7 +2125,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2100,7 +2142,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2116,7 +2158,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2133,7 +2175,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2149,7 +2191,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2159,14 +2201,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2175,14 +2217,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2192,14 +2234,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2208,14 +2250,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2225,14 +2267,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2248,7 +2290,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2258,14 +2300,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2274,14 +2316,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2291,14 +2333,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2314,7 +2356,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2324,14 +2366,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2340,14 +2382,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2357,14 +2399,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2373,14 +2415,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2397,7 +2439,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2413,7 +2455,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2430,7 +2472,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2446,7 +2488,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2456,14 +2498,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2472,14 +2514,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2489,14 +2531,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2505,14 +2547,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2522,14 +2564,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2545,7 +2587,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2562,7 +2604,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2578,7 +2620,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2592,10 +2634,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2604,31 +2646,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2637,14 +2679,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,14 +2696,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2677,13 +2719,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2694,7 +2736,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2710,7 +2752,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2727,7 +2769,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2743,7 +2785,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,14 +2795,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2769,14 +2811,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2786,14 +2828,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2802,14 +2844,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2861,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2842,13 +2884,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2859,7 +2901,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2875,7 +2917,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,14 +2927,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2901,31 +2943,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,31 +2976,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2967,14 +3009,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,14 +3026,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3000,31 +3042,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3040,7 +3082,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3050,14 +3092,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3066,14 +3108,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3087,10 +3129,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3106,7 +3148,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,14 +3158,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3139,7 +3181,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,14 +3191,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3165,14 +3207,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,14 +3224,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3198,14 +3240,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,14 +3257,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3231,14 +3273,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,14 +3290,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,14 +3306,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,14 +3323,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3297,14 +3339,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3356,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3330,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,14 +3389,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3363,7 +3405,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3380,14 +3422,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3413,14 +3455,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3429,14 +3471,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3446,14 +3488,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3469,7 +3511,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3479,14 +3521,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,14 +3537,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,14 +3554,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3528,14 +3570,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3545,11 +3587,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3561,14 +3603,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,14 +3620,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3594,14 +3636,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3611,14 +3653,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,14 +3669,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3644,14 +3686,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3660,31 +3702,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3693,31 +3735,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3726,31 +3768,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3759,31 +3801,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>228</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3792,31 +3834,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3825,31 +3867,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,31 +3900,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3891,31 +3933,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3924,66 +3966,297 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>241</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>78</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>71</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>219</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>244</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>78</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>71</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>239</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>245</v>
       </c>
-      <c t="s" r="Q84" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4545.0299999999997</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>12</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>71</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>235</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>246</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c t="s" r="Q87" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>247</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>52</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>71</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>248</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>250</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>251</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>71</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>252</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>254</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>78</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>71</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>255</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>257</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>221</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>71</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>258</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4757.5299999999997</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>260</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>261</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>262</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4382,10 +4655,45 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -524,6 +524,15 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -791,7 +800,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 7:43 PM</t>
+    <t>Sunday, 20 July, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3148,7 +3157,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3165,7 +3174,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3181,7 +3190,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3195,10 +3204,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3207,14 +3216,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3247,7 +3256,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3346,7 +3355,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3356,14 +3365,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3372,14 +3381,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,14 +3398,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3412,7 +3421,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3429,7 +3438,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3445,7 +3454,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3462,7 +3471,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3478,7 +3487,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3495,7 +3504,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3511,7 +3520,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3521,14 +3530,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3554,7 +3563,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3594,7 +3603,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3610,7 +3619,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3620,14 +3629,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3686,11 +3695,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>68</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3709,7 +3718,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3726,7 +3735,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3742,7 +3751,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3752,14 +3761,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>221</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3768,14 +3777,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3785,14 +3794,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>224</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3808,7 +3817,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,14 +3827,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3834,31 +3843,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3867,14 +3876,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3884,11 +3893,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3900,14 +3909,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3917,11 +3926,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>34</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3950,11 +3959,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3983,14 +3992,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4016,14 +4025,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>243</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4049,14 +4058,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>85</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4065,14 +4074,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,11 +4091,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>85</v>
@@ -4098,14 +4107,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4115,7 +4124,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4138,7 +4147,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4148,14 +4157,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4164,14 +4173,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4204,7 +4213,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4225,38 +4234,71 @@
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4757.5299999999997</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>260</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>224</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>71</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>261</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>262</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4808.5299999999997</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>263</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>264</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>265</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4690,10 +4732,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -800,7 +800,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 7:49 PM</t>
+    <t>Sunday, 20 July, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALKAPRESS 10MG 30 TAB.</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -290,12 +302,6 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -416,6 +422,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -509,6 +524,9 @@
     <t>90.00</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -572,21 +590,21 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
     <t>STATURIC 40MG 30 F.C. TABS.</t>
   </si>
   <si>
     <t>93.0000</t>
   </si>
   <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -662,6 +680,12 @@
     <t>175.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -734,6 +758,18 @@
     <t>10:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>96:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -755,12 +791,18 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>فرش اسنان O2</t>
   </si>
   <si>
     <t>30.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -785,12 +827,12 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>21:0</t>
+  </si>
+  <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال بالفحم</t>
   </si>
   <si>
@@ -800,7 +842,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 7:55 PM</t>
+    <t>Sunday, 20 July, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1507,7 +1549,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1517,11 +1559,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>20</v>
@@ -1533,14 +1575,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1590,7 +1632,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1623,7 +1665,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1639,7 +1681,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1649,11 +1691,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1665,14 +1707,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1682,14 +1724,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1698,14 +1740,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1715,11 +1757,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1731,14 +1773,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1748,11 +1790,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1764,7 +1806,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1781,11 +1823,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1797,14 +1839,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1837,7 +1879,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1847,14 +1889,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1863,14 +1905,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1953,7 +1995,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1969,13 +2011,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1986,7 +2028,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2002,24 +2044,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2028,14 +2070,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2085,7 +2127,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2094,14 +2136,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2118,7 +2160,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2127,14 +2169,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2144,14 +2186,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2160,14 +2202,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2177,14 +2219,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2193,14 +2235,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2210,11 +2252,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2226,14 +2268,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2243,11 +2285,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2266,7 +2308,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2276,11 +2318,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2292,14 +2334,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2309,11 +2351,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2325,14 +2367,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2342,14 +2384,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2365,7 +2407,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2375,14 +2417,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2391,14 +2433,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2408,14 +2450,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2431,7 +2473,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2441,11 +2483,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2457,14 +2499,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,14 +2516,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2490,14 +2532,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2507,11 +2549,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2523,14 +2565,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2540,14 +2582,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2556,14 +2598,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2573,14 +2615,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2596,7 +2638,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2606,14 +2648,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2622,7 +2664,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2639,11 +2681,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2655,14 +2697,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2672,11 +2714,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2688,14 +2730,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2705,11 +2747,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2728,13 +2770,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2761,7 +2803,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2775,10 +2817,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2787,31 +2829,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2820,14 +2862,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2837,11 +2879,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2853,14 +2895,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2870,14 +2912,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2886,14 +2928,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2903,11 +2945,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2919,14 +2961,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2936,14 +2978,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2952,31 +2994,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2985,14 +3027,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3002,14 +3044,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3025,13 +3067,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3042,7 +3084,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3058,24 +3100,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3091,7 +3133,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3101,14 +3143,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3117,20 +3159,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3138,7 +3180,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3157,7 +3199,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3167,11 +3209,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3183,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3200,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3216,14 +3258,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3233,14 +3275,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3249,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3266,11 +3308,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3282,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3299,11 +3341,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3322,7 +3364,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3332,14 +3374,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3348,14 +3390,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3365,11 +3407,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3381,14 +3423,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3398,11 +3440,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3414,14 +3456,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3431,11 +3473,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3447,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3464,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3480,14 +3522,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3497,11 +3539,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3513,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3530,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3546,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3563,11 +3605,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3579,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3596,11 +3638,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3612,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,11 +3671,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3645,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3662,11 +3704,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>131</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3678,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,14 +3737,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3711,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3728,14 +3770,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3744,14 +3786,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,14 +3803,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3777,14 +3819,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3794,14 +3836,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>224</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3810,14 +3852,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3827,11 +3869,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3843,14 +3885,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3860,14 +3902,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3876,28 +3918,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3909,31 +3951,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3942,31 +3984,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3975,31 +4017,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4008,31 +4050,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4041,31 +4083,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>246</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4074,31 +4116,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4107,31 +4149,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4140,31 +4182,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4173,28 +4215,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4206,28 +4248,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4239,66 +4281,330 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>256</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>82</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>75</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>230</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>259</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>82</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>75</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>254</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>261</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>12</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>75</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>246</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>262</v>
       </c>
-      <c t="s" r="Q92" s="12">
+      <c t="s" r="Q95" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>263</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>82</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>75</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>246</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4808.5299999999997</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>263</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>264</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>56</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>75</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
         <v>265</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>267</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>268</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>75</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>269</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>271</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>272</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>75</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>273</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>274</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>232</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>75</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>275</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5019.5699999999997</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>277</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>278</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>279</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4737,10 +5043,50 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -827,12 +827,15 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>21:0</t>
+    <t>22:0</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال بالفحم</t>
   </si>
   <si>
@@ -842,7 +845,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 7:56 PM</t>
+    <t>Sunday, 20 July, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4533,10 +4536,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4545,7 +4548,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4562,11 +4565,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4574,13 +4577,13 @@
     </row>
     <row r="101" ht="25.5" customHeight="1">
       <c r="P101" s="13">
-        <v>5019.5699999999997</v>
+        <v>4995.5699999999997</v>
       </c>
       <c r="Q101" s="13"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
       <c t="s" r="A102" s="14">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -4588,13 +4591,13 @@
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
       <c t="s" r="G102" s="15">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="J102" s="16"/>
       <c t="s" r="K102" s="17">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L102" s="17"/>
       <c r="M102" s="17"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -845,7 +845,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 7:59 PM</t>
+    <t>Sunday, 20 July, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -110,363 +110,366 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>90.4800</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>BRAN 60 CAPS. (MEPACO)</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>72.6000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>CLEARADERM VAG.DOUCHE 200ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>CURAM 312.5 MG/5ML PD. FOR ORAL SUSP. 75ML</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>8:4</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>141.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>BRAN 60 CAPS. (MEPACO)</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>72.6000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>CLEARADERM VAG.DOUCHE 200ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>CURAM 312.5 MG/5ML PD. FOR ORAL SUSP. 75ML</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>8:4</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
     <t>52.50</t>
   </si>
   <si>
@@ -782,10 +785,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>23.6600</t>
-  </si>
-  <si>
-    <t>11:1</t>
+    <t>27.6600</t>
+  </si>
+  <si>
+    <t>13:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -845,7 +848,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 8:03 PM</t>
+    <t>Sunday, 20 July, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1651,7 +1654,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1661,14 +1664,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1816,7 +1819,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1882,7 +1885,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1892,11 +1895,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1908,14 +1911,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1932,7 +1935,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1948,7 +1951,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1958,11 +1961,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1974,14 +1977,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1991,11 +1994,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2007,14 +2010,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2024,14 +2027,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2040,31 +2043,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2073,31 +2076,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2106,14 +2109,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2123,11 +2126,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2139,14 +2142,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2156,14 +2159,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2172,14 +2175,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2189,14 +2192,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2205,14 +2208,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2222,14 +2225,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2238,14 +2241,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2255,14 +2258,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2271,14 +2274,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2288,11 +2291,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2304,14 +2307,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2321,11 +2324,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2337,14 +2340,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2354,11 +2357,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2370,14 +2373,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2387,11 +2390,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2403,14 +2406,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2420,14 +2423,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2436,14 +2439,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,14 +2456,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2469,14 +2472,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2486,14 +2489,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2502,14 +2505,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2519,11 +2522,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2535,14 +2538,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2552,14 +2555,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2568,14 +2571,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2585,11 +2588,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2601,14 +2604,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2618,14 +2621,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2634,14 +2637,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2651,14 +2654,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2667,14 +2670,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2684,14 +2687,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2700,7 +2703,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2717,11 +2720,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2733,14 +2736,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2750,11 +2753,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2766,14 +2769,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2783,11 +2786,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2799,14 +2802,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2816,11 +2819,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2832,28 +2835,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2865,31 +2868,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2898,14 +2901,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2915,11 +2918,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2931,14 +2934,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2948,11 +2951,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2964,14 +2967,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2981,14 +2984,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3004,7 +3007,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,14 +3017,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3030,14 +3033,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,11 +3050,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3063,31 +3066,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3096,31 +3099,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3129,14 +3132,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3146,14 +3149,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3162,31 +3165,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3195,28 +3198,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3235,7 +3238,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3245,11 +3248,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3261,14 +3264,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3278,11 +3281,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3294,14 +3297,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,11 +3314,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3327,14 +3330,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,14 +3347,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3360,14 +3363,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3377,14 +3380,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3393,14 +3396,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3410,14 +3413,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3426,14 +3429,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3443,14 +3446,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3466,7 +3469,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3476,14 +3479,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>60</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3492,14 +3495,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3509,11 +3512,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3532,7 +3535,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,11 +3545,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3565,7 +3568,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,14 +3578,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3591,7 +3594,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3608,14 +3611,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3631,7 +3634,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3641,11 +3644,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3657,14 +3660,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3674,14 +3677,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3690,14 +3693,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,14 +3710,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3723,14 +3726,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,14 +3743,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3756,14 +3759,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,14 +3776,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,14 +3792,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,11 +3809,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3822,7 +3825,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3839,14 +3842,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3855,14 +3858,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3872,14 +3875,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3895,7 +3898,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,14 +3908,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3928,7 +3931,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3938,11 +3941,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3954,14 +3957,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3971,14 +3974,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3987,14 +3990,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4004,14 +4007,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,14 +4023,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4037,14 +4040,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>232</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4053,14 +4056,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4070,14 +4073,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4086,14 +4089,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4103,14 +4106,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4119,31 +4122,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>239</v>
+        <v>59</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>98</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4152,14 +4155,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>89</v>
+        <v>240</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4169,11 +4172,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4185,14 +4188,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4202,11 +4205,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4218,14 +4221,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4235,11 +4238,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4251,14 +4254,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4268,11 +4271,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4284,14 +4287,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4301,14 +4304,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,7 +4320,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4334,14 +4337,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>258</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4350,7 +4353,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4367,14 +4370,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>232</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4383,14 +4386,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4400,14 +4403,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>89</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4416,14 +4419,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4433,14 +4436,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4456,7 +4459,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4466,14 +4469,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4482,14 +4485,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4499,14 +4502,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4515,14 +4518,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4532,11 +4535,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4548,14 +4551,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4565,49 +4568,82 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>276</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>233</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>75</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
         <v>277</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4995.5699999999997</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>278</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5043.0500000000002</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
         <v>279</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
         <v>280</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>281</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5086,10 +5122,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -848,7 +848,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 8:05 PM</t>
+    <t>Sunday, 20 July, 2025 8:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -113,126 +113,135 @@
     <t>78.00</t>
   </si>
   <si>
-    <t>90.4800</t>
+    <t>102.9600</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>BRAN 60 CAPS. (MEPACO)</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>141.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>26:0</t>
   </si>
   <si>
     <t>31.0000</t>
   </si>
   <si>
-    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>BRAN 60 CAPS. (MEPACO)</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHROMOCHIT  CAPS</t>
   </si>
   <si>
@@ -257,9 +266,6 @@
     <t>CLEARADERM VAG.DOUCHE 200ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -278,9 +284,6 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CONVENTIN 300MG 30 CAPS.</t>
   </si>
   <si>
@@ -560,7 +563,16 @@
     <t>81.00</t>
   </si>
   <si>
-    <t>81.0000</t>
+    <t>162.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
   </si>
   <si>
     <t>RELAXON 30 CAP</t>
@@ -593,6 +605,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -632,9 +653,6 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>TEGRETOL 200MG 30 TAB.</t>
   </si>
   <si>
@@ -785,10 +803,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>27.6600</t>
-  </si>
-  <si>
-    <t>13:1</t>
+    <t>31.6600</t>
+  </si>
+  <si>
+    <t>15:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1654,7 +1672,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1687,7 +1705,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1697,11 +1715,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1713,7 +1731,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1730,11 +1748,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1746,7 +1764,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1763,11 +1781,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1779,7 +1797,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1796,11 +1814,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1812,14 +1830,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1836,7 +1854,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1845,7 +1863,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1862,11 +1880,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1878,7 +1896,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1895,11 +1913,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1911,14 +1929,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1928,11 +1946,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1944,7 +1962,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1961,11 +1979,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1977,14 +1995,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1994,11 +2012,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2010,14 +2028,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2027,11 +2045,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2043,14 +2061,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2064,7 +2082,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2076,7 +2094,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2089,15 +2107,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2109,7 +2127,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2126,11 +2144,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2159,11 +2177,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2175,14 +2193,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2192,14 +2210,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2208,7 +2226,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2225,11 +2243,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2258,11 +2276,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2274,7 +2292,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2307,7 +2325,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2324,11 +2342,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2340,14 +2358,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2373,7 +2391,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2390,11 +2408,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2423,11 +2441,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2439,14 +2457,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2456,11 +2474,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2489,11 +2507,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2505,14 +2523,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2526,7 +2544,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2555,11 +2573,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2588,11 +2606,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2604,7 +2622,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2621,11 +2639,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2654,11 +2672,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2670,14 +2688,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2687,11 +2705,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2703,7 +2721,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2720,11 +2738,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2736,7 +2754,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2753,11 +2771,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2786,11 +2804,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2802,14 +2820,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2819,11 +2837,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2835,14 +2853,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2852,11 +2870,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2868,28 +2886,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2918,11 +2936,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2934,7 +2952,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2951,11 +2969,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2984,11 +3002,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3000,7 +3018,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3017,11 +3035,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3033,14 +3051,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3050,11 +3068,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3066,14 +3084,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3083,11 +3101,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3099,28 +3117,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3132,7 +3150,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3149,14 +3167,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3165,14 +3183,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3182,11 +3200,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3198,7 +3216,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3211,15 +3229,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3231,7 +3249,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3248,11 +3266,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3264,14 +3282,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3281,11 +3299,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3297,14 +3315,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3314,7 +3332,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3330,14 +3348,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3347,11 +3365,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3363,14 +3381,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3380,14 +3398,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3396,14 +3414,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3413,14 +3431,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3429,14 +3447,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3446,14 +3464,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3462,14 +3480,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3479,14 +3497,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3495,14 +3513,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3512,14 +3530,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3535,7 +3553,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3545,11 +3563,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3561,14 +3579,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3578,14 +3596,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3594,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3611,14 +3629,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3627,14 +3645,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3644,11 +3662,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3660,14 +3678,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3677,14 +3695,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3693,14 +3711,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3710,14 +3728,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3726,14 +3744,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3743,11 +3761,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3759,14 +3777,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3776,14 +3794,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3792,14 +3810,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3809,11 +3827,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3825,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3842,14 +3860,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3858,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3875,14 +3893,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3898,7 +3916,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,11 +3926,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3924,14 +3942,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3941,11 +3959,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>51</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3957,7 +3975,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3974,14 +3992,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3990,14 +4008,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4007,14 +4025,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4023,14 +4041,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4040,14 +4058,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4056,14 +4074,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4073,14 +4091,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>233</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4089,14 +4107,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4106,14 +4124,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4122,14 +4140,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4139,14 +4157,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>89</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4155,20 +4173,20 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4179,7 +4197,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4195,24 +4213,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4234,7 +4252,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4242,7 +4260,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4254,28 +4272,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4287,28 +4305,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4327,24 +4345,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4353,31 +4371,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>259</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4393,24 +4411,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4419,31 +4437,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>89</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4452,31 +4470,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4485,31 +4503,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4518,28 +4536,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>269</v>
+        <v>49</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4551,31 +4569,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>60</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4584,66 +4602,132 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5043.0500000000002</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>278</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
         <v>279</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>78</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
         <v>280</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>281</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>282</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>239</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>78</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>283</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5452.5299999999997</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>285</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>286</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>287</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5127,10 +5211,20 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -158,112 +158,112 @@
     <t>BETAFOS 1 AMP. 2ML</t>
   </si>
   <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>BRAN 60 CAPS. (MEPACO)</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>72.6000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>CLEARADERM VAG.DOUCHE 200ML</t>
+  </si>
+  <si>
     <t>0:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>BRAN 60 CAPS. (MEPACO)</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>72.6000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>CLEARADERM VAG.DOUCHE 200ML</t>
   </si>
   <si>
     <t>45.00</t>
@@ -1672,7 +1672,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1837,7 +1837,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1847,14 +1847,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1913,11 +1913,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1929,14 +1929,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1946,11 +1946,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1979,11 +1979,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1995,14 +1995,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2012,11 +2012,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2028,14 +2028,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2045,11 +2045,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2061,14 +2061,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2078,11 +2078,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2107,15 +2107,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2144,11 +2144,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2160,14 +2160,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2217,7 +2217,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2266,7 +2266,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2431,7 +2431,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2497,7 +2497,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2596,7 +2596,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2662,7 +2662,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2794,7 +2794,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2860,7 +2860,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2893,13 +2893,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2926,7 +2926,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3058,7 +3058,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3091,7 +3091,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3124,13 +3124,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3174,7 +3174,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3190,7 +3190,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3229,7 +3229,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3289,7 +3289,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3355,7 +3355,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3388,7 +3388,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3405,7 +3405,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3454,7 +3454,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3520,7 +3520,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3530,11 +3530,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3619,7 +3619,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3751,7 +3751,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3817,7 +3817,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3850,7 +3850,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3867,7 +3867,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3916,7 +3916,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3949,7 +3949,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4015,7 +4015,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4025,11 +4025,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4081,7 +4081,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4213,7 +4213,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4230,7 +4230,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4252,7 +4252,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4279,13 +4279,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4318,7 +4318,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4351,7 +4351,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4384,7 +4384,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4411,13 +4411,13 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4428,7 +4428,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4444,13 +4444,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4477,13 +4477,13 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4516,7 +4516,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4527,7 +4527,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4543,13 +4543,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4576,13 +4576,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4593,7 +4593,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4615,7 +4615,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4648,7 +4648,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4681,7 +4681,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -620,6 +620,15 @@
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>STATURIC 40MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -866,7 +875,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 8:07 PM</t>
+    <t>Sunday, 20 July, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3685,7 +3694,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3695,11 +3704,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>30</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3711,7 +3720,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3728,14 +3737,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3744,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3761,11 +3770,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3784,7 +3793,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3801,7 +3810,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3817,7 +3826,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3831,10 +3840,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3843,14 +3852,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,14 +3869,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3883,7 +3892,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3893,14 +3902,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3909,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,7 +3935,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3966,7 +3975,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3982,7 +3991,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3992,14 +4001,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4008,14 +4017,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4025,14 +4034,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4041,14 +4050,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4058,11 +4067,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4081,7 +4090,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4091,14 +4100,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4107,14 +4116,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4124,14 +4133,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4147,7 +4156,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4157,14 +4166,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>239</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4173,14 +4182,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4190,14 +4199,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>242</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4213,7 +4222,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4223,14 +4232,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4239,31 +4248,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4272,14 +4281,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4289,11 +4298,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4305,14 +4314,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>252</v>
+        <v>51</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4322,11 +4331,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4355,11 +4364,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4371,14 +4380,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4388,11 +4397,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4404,14 +4413,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4428,7 +4437,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4454,14 +4463,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>265</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4487,14 +4496,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4503,14 +4512,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4520,14 +4529,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>51</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4536,14 +4545,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4553,14 +4562,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4569,14 +4578,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4586,14 +4595,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4609,7 +4618,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>275</v>
+        <v>59</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4619,14 +4628,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4635,14 +4644,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4652,11 +4661,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4668,14 +4677,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4696,38 +4705,71 @@
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5452.5299999999997</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>285</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>242</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>77</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
         <v>286</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>287</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5577.5299999999997</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>288</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>289</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>290</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5221,10 +5263,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -311,33 +320,36 @@
     <t>96.00</t>
   </si>
   <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>31.6800</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
@@ -458,6 +470,15 @@
     <t>359.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -822,6 +843,15 @@
   </si>
   <si>
     <t>9.0000</t>
+  </si>
+  <si>
+    <t>غيار جروح لاصق صغير</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
   </si>
   <si>
     <t>فرش اسنان O2</t>
@@ -1945,7 +1975,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1955,14 +1985,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1971,14 +2001,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1995,7 +2025,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2011,7 +2041,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2021,11 +2051,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2037,14 +2067,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2054,11 +2084,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2070,14 +2100,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2087,14 +2117,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2110,24 +2140,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2136,20 +2166,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2160,7 +2190,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2176,7 +2206,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2186,11 +2216,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2202,14 +2232,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2219,14 +2249,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2235,14 +2265,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2259,7 +2289,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2275,7 +2305,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2292,7 +2322,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2308,7 +2338,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2318,14 +2348,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2334,14 +2364,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2351,11 +2381,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2374,7 +2404,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2384,14 +2414,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2400,14 +2430,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2417,11 +2447,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2433,14 +2463,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2450,11 +2480,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2473,7 +2503,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2483,14 +2513,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2499,14 +2529,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2516,14 +2546,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2532,14 +2562,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2549,14 +2579,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2565,14 +2595,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2582,7 +2612,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2605,7 +2635,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2615,14 +2645,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2631,14 +2661,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2648,11 +2678,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2664,14 +2694,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2681,14 +2711,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2697,14 +2727,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2714,14 +2744,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2730,14 +2760,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2747,14 +2777,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2763,7 +2793,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2780,11 +2810,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2796,14 +2826,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2813,11 +2843,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2829,14 +2859,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2846,11 +2876,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2862,14 +2892,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2879,11 +2909,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2895,28 +2925,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2928,31 +2958,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2961,14 +2991,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2978,11 +3008,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2994,14 +3024,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3018,7 +3048,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3034,7 +3064,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3044,14 +3074,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3060,14 +3090,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3077,11 +3107,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3093,14 +3123,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3110,14 +3140,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3126,31 +3156,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3159,14 +3189,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3176,14 +3206,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3192,31 +3222,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3225,31 +3255,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3258,14 +3288,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3275,14 +3305,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3291,28 +3321,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3324,14 +3354,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3341,11 +3371,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3357,14 +3387,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3374,11 +3404,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3390,14 +3420,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3407,14 +3437,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3423,14 +3453,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3440,14 +3470,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3456,14 +3486,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3473,14 +3503,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3489,14 +3519,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3506,14 +3536,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3522,14 +3552,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3539,14 +3569,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3555,14 +3585,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3572,11 +3602,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3588,14 +3618,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,11 +3635,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3628,7 +3658,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3638,11 +3668,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3654,14 +3684,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,14 +3701,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3687,14 +3717,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3704,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3720,14 +3750,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,14 +3767,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3753,14 +3783,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,14 +3800,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3786,14 +3816,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,14 +3833,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3819,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3836,14 +3866,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3852,14 +3882,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,11 +3899,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3885,14 +3915,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,14 +3932,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3918,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,11 +3965,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3951,14 +3981,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,14 +3998,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3984,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4001,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4017,14 +4047,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,11 +4064,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4050,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4067,11 +4097,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>49</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4083,7 +4113,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4100,14 +4130,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4116,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4133,14 +4163,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>172</v>
+        <v>49</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4149,14 +4179,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,14 +4196,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4182,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>239</v>
+        <v>69</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,14 +4229,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>242</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4215,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4232,14 +4262,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4248,14 +4278,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4265,14 +4295,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>51</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4281,31 +4311,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4314,31 +4344,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4347,28 +4377,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4380,28 +4410,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4413,28 +4443,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4446,31 +4476,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4486,24 +4516,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>84</v>
+        <v>267</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>268</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4512,31 +4542,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>242</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4545,31 +4575,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>51</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4578,31 +4608,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4611,28 +4641,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>51</v>
@@ -4644,31 +4674,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4677,28 +4707,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>87</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4710,66 +4740,165 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>287</v>
       </c>
-      <c t="s" r="Q104" s="12">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>288</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>80</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>289</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5577.5299999999997</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>288</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>289</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>290</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>291</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>292</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>80</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>293</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>295</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>249</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>80</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>296</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5738.3800000000001</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>298</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>299</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>300</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5268,10 +5397,25 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -95,6 +95,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -413,12 +422,6 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -470,13 +473,13 @@
     <t>359.0000</t>
   </si>
   <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>71.5000</t>
   </si>
   <si>
     <t>HYACARENOL EYE DROPS 10 ML</t>
@@ -905,7 +908,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 8:11 PM</t>
+    <t>Sunday, 20 July, 2025 8:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1678,7 +1681,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1688,11 +1691,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1704,14 +1707,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1728,7 +1731,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1737,14 +1740,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1754,14 +1757,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1777,7 +1780,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1810,7 +1813,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1827,7 +1830,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1843,7 +1846,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1893,7 +1896,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1902,14 +1905,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1919,14 +1922,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>54</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1975,7 +1978,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1992,7 +1995,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2008,7 +2011,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2018,14 +2021,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2034,14 +2037,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2058,7 +2061,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2074,7 +2077,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2084,11 +2087,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2100,14 +2103,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2117,11 +2120,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -2133,14 +2136,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2150,14 +2153,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2173,24 +2176,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2199,20 +2202,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2223,7 +2226,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2239,7 +2242,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2249,11 +2252,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2265,14 +2268,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2282,14 +2285,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2298,14 +2301,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2322,7 +2325,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2338,7 +2341,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2355,7 +2358,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2371,7 +2374,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2381,14 +2384,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2397,14 +2400,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2414,14 +2417,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2437,7 +2440,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2447,14 +2450,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2463,14 +2466,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2480,11 +2483,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2496,14 +2499,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2513,11 +2516,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2536,7 +2539,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2546,14 +2549,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2569,7 +2572,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2579,14 +2582,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2602,7 +2605,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2612,14 +2615,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2628,14 +2631,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2645,11 +2648,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2661,14 +2664,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2685,7 +2688,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2701,7 +2704,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2734,7 +2737,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2751,7 +2754,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2767,7 +2770,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2777,14 +2780,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2793,14 +2796,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2810,14 +2813,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2843,11 +2846,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2859,14 +2862,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2876,11 +2879,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2892,14 +2895,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2909,11 +2912,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2925,14 +2928,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2942,11 +2945,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2958,28 +2961,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2991,31 +2994,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3024,14 +3027,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3041,14 +3044,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3057,14 +3060,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3074,14 +3077,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3090,14 +3093,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3107,11 +3110,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3123,14 +3126,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3140,14 +3143,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3163,7 +3166,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3173,14 +3176,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3189,14 +3192,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3206,11 +3209,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3222,31 +3225,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3255,31 +3258,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3288,14 +3291,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3305,14 +3308,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3321,31 +3324,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3354,28 +3357,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3394,7 +3397,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3404,11 +3407,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3420,14 +3423,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3437,11 +3440,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3453,14 +3456,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3470,11 +3473,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3486,14 +3489,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3503,14 +3506,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3519,14 +3522,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,14 +3539,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3552,14 +3555,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3569,14 +3572,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3585,14 +3588,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3602,14 +3605,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3618,14 +3621,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3635,14 +3638,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3658,7 +3661,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3668,14 +3671,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3684,14 +3687,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3701,14 +3704,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3717,14 +3720,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3734,14 +3737,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3757,7 +3760,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,11 +3770,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3790,7 +3793,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3800,14 +3803,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3816,14 +3819,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3833,11 +3836,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3866,14 +3869,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3889,7 +3892,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3899,11 +3902,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3915,14 +3918,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3932,14 +3935,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3948,14 +3951,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3965,14 +3968,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3981,14 +3984,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3998,14 +4001,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4014,14 +4017,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,14 +4034,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4047,14 +4050,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,11 +4067,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4080,14 +4083,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,14 +4100,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4113,14 +4116,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,14 +4133,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4153,7 +4156,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4163,14 +4166,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4186,7 +4189,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,11 +4199,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4212,14 +4215,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,14 +4232,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,14 +4248,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4262,14 +4265,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4278,14 +4281,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>246</v>
+        <v>108</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,14 +4298,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>249</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4311,14 +4314,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4328,14 +4331,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4344,14 +4347,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4361,14 +4364,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,31 +4380,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>105</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4410,28 +4413,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4443,28 +4446,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>54</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4476,28 +4479,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4509,28 +4512,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4542,31 +4545,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,31 +4578,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>275</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4608,31 +4611,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4641,31 +4644,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>51</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4674,31 +4677,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4707,31 +4710,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4747,24 +4750,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4773,31 +4776,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>65</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4806,28 +4809,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4839,66 +4842,99 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5738.3800000000001</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>296</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>250</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>83</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>297</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
         <v>298</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5752.0900000000001</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
         <v>299</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
         <v>300</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>301</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5412,10 +5448,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -206,576 +206,585 @@
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>72.6000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>CLEARADERM VAG.DOUCHE 200ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 300MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>CURAM 312.5 MG/5ML PD. FOR ORAL SUSP. 75ML</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>34.5600</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>71.5000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>162.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>RONIDERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>18:1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>STATURIC 40MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>118.3700</t>
+  </si>
+  <si>
+    <t>TOPIRAMATE 25MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>UNILOXAM 500MG 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>UNIZITHRIN 200MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>62.50</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8524:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>26:0</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHROMOCHIT  CAPS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>72.6000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>CLEARADERM VAG.DOUCHE 200ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 300MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>CURAM 312.5 MG/5ML PD. FOR ORAL SUSP. 75ML</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>8:4</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 625MG 16 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>71.5000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>MELANTHENOL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORALACT  TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>162.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>RONIDERM TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>18:1</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>STATURIC 40MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>136.5000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>TEGRETOL 200MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>118.3700</t>
-  </si>
-  <si>
-    <t>TOPIRAMATE 25MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>UNILOXAM 500MG 10 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>UNIZITHRIN 200MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>62.50</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>URGINAFECT 10MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8524:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>189.00</t>
-  </si>
-  <si>
-    <t>94.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
     <t>192.0000</t>
   </si>
   <si>
@@ -848,6 +857,15 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
     <t>غيار جروح لاصق صغير</t>
   </si>
   <si>
@@ -908,7 +926,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 8:14 PM</t>
+    <t>Sunday, 20 July, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2061,7 +2079,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2671,7 +2689,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>124</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -3133,7 +3151,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3143,11 +3161,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3159,7 +3177,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3192,7 +3210,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3209,11 +3227,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3225,7 +3243,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3242,11 +3260,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3258,7 +3276,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3275,11 +3293,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3291,7 +3309,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3312,7 +3330,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>54</v>
@@ -3324,7 +3342,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3341,11 +3359,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3357,31 +3375,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3397,21 +3415,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3423,14 +3441,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3440,11 +3458,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3463,7 +3481,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3473,11 +3491,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3489,14 +3507,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3510,7 +3528,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3522,14 +3540,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3539,14 +3557,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3555,14 +3573,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3572,14 +3590,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3588,14 +3606,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3605,14 +3623,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3628,7 +3646,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3638,14 +3656,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3654,14 +3672,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3671,14 +3689,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3687,14 +3705,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3704,14 +3722,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3720,14 +3738,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3744,7 +3762,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3760,7 +3778,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3770,14 +3788,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3786,14 +3804,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3803,11 +3821,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3819,14 +3837,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3836,14 +3854,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3859,7 +3877,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3869,11 +3887,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3885,7 +3903,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3902,14 +3920,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3918,14 +3936,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3935,11 +3953,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3958,7 +3976,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3975,7 +3993,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3991,7 +4009,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4005,10 +4023,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4017,14 +4035,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4034,14 +4052,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4057,7 +4075,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4067,14 +4085,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4083,14 +4101,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4100,7 +4118,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4140,7 +4158,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4156,7 +4174,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4166,14 +4184,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4182,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4199,14 +4217,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4215,14 +4233,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,11 +4250,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4255,7 +4273,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4281,14 +4299,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4298,14 +4316,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4321,7 +4339,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4331,14 +4349,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>250</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4347,14 +4365,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4364,14 +4382,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4380,14 +4398,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4397,14 +4415,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>105</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4426,18 +4444,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>105</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4446,14 +4464,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4463,11 +4481,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4479,14 +4497,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4496,11 +4514,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4529,11 +4547,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4545,14 +4563,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4562,11 +4580,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4578,14 +4596,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>90</v>
+        <v>271</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4602,7 +4620,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4628,14 +4646,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4661,14 +4679,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>250</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4677,14 +4695,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4694,14 +4712,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4717,7 +4735,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4727,14 +4745,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4743,14 +4761,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4760,14 +4778,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4776,14 +4794,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4793,11 +4811,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>54</v>
@@ -4809,14 +4827,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>289</v>
+        <v>90</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4826,11 +4844,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4842,14 +4860,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4859,14 +4877,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4875,14 +4893,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4892,49 +4910,115 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5752.0900000000001</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>298</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
         <v>299</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>83</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
         <v>300</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>301</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>302</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>65</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>83</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>303</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5877.1300000000001</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>305</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>306</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>307</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5453,10 +5537,20 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -509,7 +509,7 @@
     <t>52.00</t>
   </si>
   <si>
-    <t>52.0000</t>
+    <t>104.0000</t>
   </si>
   <si>
     <t>LIMITLESS WOMAN MAX 30 TABS.</t>
@@ -926,7 +926,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 8:17 PM</t>
+    <t>Sunday, 20 July, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3217,7 +3217,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3234,7 +3234,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -4988,7 +4988,7 @@
     </row>
     <row r="111" ht="25.5" customHeight="1">
       <c r="P111" s="13">
-        <v>5877.1300000000001</v>
+        <v>5929.1300000000001</v>
       </c>
       <c r="Q111" s="13"/>
     </row>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -926,7 +926,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 8:19 PM</t>
+    <t>Sunday, 20 July, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -290,6 +290,27 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>CODILAR SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -323,6 +344,12 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -335,7 +362,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>8:2</t>
+    <t>7:2</t>
   </si>
   <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
@@ -353,324 +380,342 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>34.5600</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
     <t>5:2</t>
   </si>
   <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>71.5000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PARACETAMOL-PHARCO B 1% SOLN. I.V. INF. 100 ML</t>
+  </si>
+  <si>
+    <t>46.50</t>
+  </si>
+  <si>
+    <t>46.5000</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>162.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>RONIDERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>18:1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>STATURIC 40MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
     <t>31.6800</t>
   </si>
   <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>34.5600</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 625MG 16 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>71.5000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>MELANTHENOL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORALACT  TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>162.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>RONIDERM TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>18:1</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>STATURIC 40MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -824,15 +869,12 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>96:0</t>
+    <t>94:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -842,21 +884,21 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>31.6600</t>
-  </si>
-  <si>
-    <t>15:1</t>
+    <t>16:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -899,22 +941,13 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>22:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>96.0000</t>
   </si>
   <si>
     <t>معجون سيجنال بالفحم</t>
@@ -926,7 +959,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 8:26 PM</t>
+    <t>Sunday, 20 July, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2343,7 +2376,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2359,7 +2392,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2376,7 +2409,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2392,7 +2425,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2402,14 +2435,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2418,14 +2451,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2435,11 +2468,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2451,14 +2484,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2468,14 +2501,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2484,14 +2517,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2505,10 +2538,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2517,7 +2550,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2534,14 +2567,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2550,14 +2583,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2567,14 +2600,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2583,14 +2616,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2600,14 +2633,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2616,14 +2649,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2633,14 +2666,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2649,14 +2682,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2666,14 +2699,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2682,14 +2715,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2699,14 +2732,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>124</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2715,14 +2748,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2732,11 +2765,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2748,14 +2781,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2765,14 +2798,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2781,14 +2814,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2798,14 +2831,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2814,14 +2847,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2831,11 +2864,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2847,7 +2880,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2864,14 +2897,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2880,14 +2913,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2897,11 +2930,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2913,14 +2946,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2930,14 +2963,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2946,14 +2979,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2963,11 +2996,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2979,14 +3012,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2996,11 +3029,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3012,7 +3045,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3025,15 +3058,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3045,14 +3078,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3062,14 +3095,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3078,14 +3111,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3095,11 +3128,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3111,31 +3144,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3144,14 +3177,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3161,11 +3194,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3177,14 +3210,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3194,11 +3227,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3210,7 +3243,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3227,14 +3260,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3243,14 +3276,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3260,11 +3293,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3276,28 +3309,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3309,7 +3342,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3326,11 +3359,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>54</v>
@@ -3342,14 +3375,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3359,11 +3392,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3375,31 +3408,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3408,31 +3441,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3441,14 +3474,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3458,14 +3491,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3474,14 +3507,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3491,14 +3524,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3507,28 +3540,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3540,14 +3573,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3557,11 +3590,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3573,14 +3606,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3590,14 +3623,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3606,14 +3639,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3623,14 +3656,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3639,14 +3672,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3656,14 +3689,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3672,14 +3705,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3689,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3705,7 +3738,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3722,14 +3755,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3738,14 +3771,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3755,14 +3788,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3771,14 +3804,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3788,14 +3821,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3804,14 +3837,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,11 +3854,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3837,14 +3870,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,14 +3887,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3870,14 +3903,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3887,14 +3920,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3903,7 +3936,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3920,11 +3953,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>33</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3936,14 +3969,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3953,11 +3986,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3969,14 +4002,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3986,11 +4019,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -4002,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4019,11 +4052,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4035,14 +4068,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4052,14 +4085,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4068,14 +4101,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4085,14 +4118,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4101,14 +4134,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4118,11 +4151,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4134,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4151,14 +4184,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4167,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4184,14 +4217,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4200,14 +4233,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4217,14 +4250,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4233,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4250,14 +4283,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4266,14 +4299,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4283,14 +4316,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4299,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4316,14 +4349,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4332,14 +4365,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4349,14 +4382,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4365,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4382,14 +4415,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4398,14 +4431,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4415,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4431,14 +4464,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>72</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4448,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4464,31 +4497,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4497,31 +4530,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>54</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4530,31 +4563,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,31 +4596,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4596,14 +4629,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4613,11 +4646,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4629,14 +4662,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4646,14 +4679,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>257</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4662,14 +4695,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>90</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4679,14 +4712,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>279</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4695,14 +4728,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4712,14 +4745,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4728,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4745,14 +4778,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4761,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4778,14 +4811,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>54</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4794,14 +4827,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4811,14 +4844,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4827,7 +4860,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4844,14 +4877,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4860,14 +4893,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>257</v>
+        <v>90</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4877,14 +4910,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>54</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4893,14 +4926,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4910,11 +4943,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4926,14 +4959,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>65</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4950,7 +4983,7 @@
         <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4966,7 +4999,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4976,49 +5009,214 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>304</v>
       </c>
-      <c t="s" r="Q110" s="12">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>90</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>83</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>282</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5929.1300000000001</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>305</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>272</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>83</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
         <v>306</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
         <v>307</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c t="s" r="Q112" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>308</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>309</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>83</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>98</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>310</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>297</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>83</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>311</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>313</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>65</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>83</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>314</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6453.6300000000001</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>316</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>317</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>318</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5547,10 +5745,35 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>ASPRICARLO 81MG 30 CHEWABLE TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>28.50</t>
+  </si>
+  <si>
+    <t>9.4050</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -332,6 +344,18 @@
     <t>37.6200</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>CURAM 312.5 MG/5ML PD. FOR ORAL SUSP. 75ML</t>
   </si>
   <si>
@@ -500,6 +524,15 @@
     <t>59.4000</t>
   </si>
   <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
     <t>HERO BABY DIGEST MILK 400 GM</t>
   </si>
   <si>
@@ -551,9 +584,6 @@
     <t>LIMITLESS WOMAN MAX 30 TABS.</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
     <t>240.0000</t>
   </si>
   <si>
@@ -638,6 +668,15 @@
     <t>162.0000</t>
   </si>
   <si>
+    <t>Q10 SELENZO TAB</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>380.0000</t>
+  </si>
+  <si>
     <t>RAMIXOLE 1 MG 30 TAB.</t>
   </si>
   <si>
@@ -749,12 +788,24 @@
     <t>118.3700</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>TOPIRAMATE 25MG 30 F.C. TAB</t>
   </si>
   <si>
     <t>29.7000</t>
   </si>
   <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>UNILOXAM 500MG 10 F.C. TABS.</t>
   </si>
   <si>
@@ -827,12 +878,18 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>192.0000</t>
   </si>
   <si>
+    <t>ZYROVAZET 10/10MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>71.2800</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -959,7 +1016,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 8:27 PM</t>
+    <t>Sunday, 20 July, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1897,7 +1954,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1907,14 +1964,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1923,14 +1980,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1940,11 +1997,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1956,7 +2013,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1973,14 +2030,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1996,7 +2053,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2013,7 +2070,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2022,7 +2079,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2039,11 +2096,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2055,14 +2112,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2072,14 +2129,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2088,14 +2145,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2112,7 +2169,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2128,7 +2185,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2138,14 +2195,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2154,14 +2211,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2237,14 +2294,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2253,31 +2310,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2293,24 +2350,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2319,14 +2376,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2376,7 +2433,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2392,7 +2449,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2402,14 +2459,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2418,14 +2475,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2442,7 +2499,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2458,7 +2515,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2468,14 +2525,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2484,14 +2541,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2501,14 +2558,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2517,14 +2574,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2534,14 +2591,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2550,14 +2607,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2567,14 +2624,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2583,14 +2640,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2604,10 +2661,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2616,7 +2673,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2633,14 +2690,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2649,14 +2706,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2666,14 +2723,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2682,14 +2739,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2699,14 +2756,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2715,14 +2772,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2732,14 +2789,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2748,14 +2805,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2765,14 +2822,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2781,14 +2838,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2798,14 +2855,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2814,14 +2871,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2831,14 +2888,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2847,14 +2904,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2864,14 +2921,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2880,14 +2937,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2897,14 +2954,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2913,14 +2970,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2930,14 +2987,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2946,14 +3003,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2963,11 +3020,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2979,14 +3036,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2996,11 +3053,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3012,14 +3069,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3029,14 +3086,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3045,14 +3102,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3062,11 +3119,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3078,14 +3135,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3095,11 +3152,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3111,14 +3168,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3128,11 +3185,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3144,28 +3201,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3177,14 +3234,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3194,14 +3251,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3210,28 +3267,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3243,7 +3300,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3260,14 +3317,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3276,14 +3333,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3293,11 +3350,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3309,14 +3366,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3326,11 +3383,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3342,7 +3399,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3359,14 +3416,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3375,14 +3432,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3392,11 +3449,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3408,28 +3465,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3441,7 +3498,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3458,14 +3515,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3474,14 +3531,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3491,11 +3548,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3507,31 +3564,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3540,31 +3597,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3573,14 +3630,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3590,14 +3647,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3606,14 +3663,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3623,14 +3680,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3639,28 +3696,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3672,14 +3729,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3689,11 +3746,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3705,14 +3762,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,14 +3779,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3738,14 +3795,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3755,14 +3812,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,14 +3828,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3788,14 +3845,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3804,14 +3861,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3821,14 +3878,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3837,14 +3894,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,14 +3911,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3870,28 +3927,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3903,14 +3960,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,14 +3977,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3993,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,14 +4010,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3969,14 +4026,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3986,11 +4043,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4002,14 +4059,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,14 +4076,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4035,14 +4092,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,14 +4109,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4068,7 +4125,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4085,11 +4142,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>33</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4101,14 +4158,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,11 +4175,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4134,14 +4191,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,11 +4208,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4167,14 +4224,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,11 +4241,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4200,14 +4257,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,14 +4274,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4233,14 +4290,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4307,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4266,14 +4323,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,11 +4340,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4299,14 +4356,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,14 +4373,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4332,14 +4389,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,14 +4406,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4365,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,14 +4439,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4398,14 +4455,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4415,11 +4472,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4431,14 +4488,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,14 +4505,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4464,14 +4521,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,14 +4538,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4497,14 +4554,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,14 +4571,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4530,14 +4587,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4604,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4563,14 +4620,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4580,11 +4637,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>157</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4596,14 +4653,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>58</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,14 +4670,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4629,28 +4686,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4662,31 +4719,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4695,31 +4752,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,31 +4785,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4768,24 +4825,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4801,24 +4858,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>272</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4827,31 +4884,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4867,24 +4924,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>294</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,31 +4950,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>272</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4926,28 +4983,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4959,31 +5016,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4992,31 +5049,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5025,31 +5082,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5058,31 +5115,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5091,31 +5148,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>94</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5124,31 +5181,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>272</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5157,66 +5214,297 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>65</v>
+        <v>316</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6453.6300000000001</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>318</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>69</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>87</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>319</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>321</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>12</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>87</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>301</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>323</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>94</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>87</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>301</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>324</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>112</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>87</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>325</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>327</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>328</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>87</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>102</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>329</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>316</v>
       </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>317</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>318</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>87</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>330</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>332</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>69</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>87</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>333</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>334</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7593.3149999999996</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>335</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>336</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>337</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5770,10 +6058,45 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -347,537 +347,537 @@
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>CURAM 312.5 MG/5ML PD. FOR ORAL SUSP. 75ML</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>34.5600</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>HAIRVOGINE 30TAB</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>359.00</t>
+  </si>
+  <si>
+    <t>359.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>71.5000</t>
+  </si>
+  <si>
+    <t>HYACARENOL EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>IROLAMIN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PARACETAMOL-PHARCO B 1% SOLN. I.V. INF. 100 ML</t>
+  </si>
+  <si>
+    <t>46.50</t>
+  </si>
+  <si>
+    <t>46.5000</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>162.0000</t>
+  </si>
+  <si>
+    <t>Q10 SELENZO TAB</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>380.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>RONIDERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>SELGON 20MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>18:1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>STATURIC 40MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>118.3700</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TOPIRAMATE 25MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>UNILOXAM 500MG 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>UNIZITHRIN 200MG/5ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>62.50</t>
+  </si>
+  <si>
+    <t>62.5000</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8524:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>CURAM 312.5 MG/5ML PD. FOR ORAL SUSP. 75ML</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>79.6800</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>34.5600</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>HAIRVOGINE 30TAB</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>480.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>359.00</t>
-  </si>
-  <si>
-    <t>359.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 625MG 16 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>71.5000</t>
-  </si>
-  <si>
-    <t>HYACARENOL EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t>IROLAMIN 30 CAPS.</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS WOMAN MAX 30 TABS.</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>MELANTHENOL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORALACT  TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PARACETAMOL-PHARCO B 1% SOLN. I.V. INF. 100 ML</t>
-  </si>
-  <si>
-    <t>46.50</t>
-  </si>
-  <si>
-    <t>46.5000</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>162.0000</t>
-  </si>
-  <si>
-    <t>Q10 SELENZO TAB</t>
-  </si>
-  <si>
-    <t>380.00</t>
-  </si>
-  <si>
-    <t>380.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>RONIDERM TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>SELGON 20MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>18:1</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>STARVILLE ACNE PRONE SKIN FACIAL CLEANSER 200 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>STATURIC 40MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>136.5000</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>TEGRETOL 200MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>118.3700</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TOPIRAMATE 25MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>TOPRO 10 SACHETS</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>UNILOXAM 500MG 10 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>UNIZITHRIN 200MG/5ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>62.50</t>
-  </si>
-  <si>
-    <t>62.5000</t>
-  </si>
-  <si>
-    <t>URGINAFECT 10MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>175.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8524:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>189.00</t>
-  </si>
-  <si>
-    <t>94.5000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
     <t>192.0000</t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 8:42 PM</t>
+    <t>Sunday, 20 July, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2581,7 +2581,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2591,14 +2591,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2624,11 +2624,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2640,14 +2640,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>76</v>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2690,11 +2690,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2706,14 +2706,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>76</v>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2789,11 +2789,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2805,14 +2805,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>38</v>
@@ -2838,14 +2838,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2855,14 +2855,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2871,14 +2871,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2888,14 +2888,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2904,14 +2904,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2921,14 +2921,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2937,14 +2937,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2954,14 +2954,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2970,14 +2970,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2987,14 +2987,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3003,14 +3003,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3020,11 +3020,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3036,14 +3036,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3053,14 +3053,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3069,14 +3069,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3086,14 +3086,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3102,14 +3102,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3119,14 +3119,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3152,11 +3152,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3168,14 +3168,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3185,11 +3185,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3201,14 +3201,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3218,11 +3218,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3234,14 +3234,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3251,11 +3251,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3280,15 +3280,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3300,31 +3300,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3333,14 +3333,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3350,14 +3350,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3366,14 +3366,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3383,14 +3383,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3399,14 +3399,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3416,14 +3416,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3432,14 +3432,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3449,11 +3449,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3465,14 +3465,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3482,14 +3482,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3498,14 +3498,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3515,14 +3515,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3531,14 +3531,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3548,14 +3548,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3564,31 +3564,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3597,31 +3597,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3630,14 +3630,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3647,14 +3647,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3663,14 +3663,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3680,11 +3680,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3696,31 +3696,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3729,28 +3729,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3762,14 +3762,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3779,11 +3779,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3795,14 +3795,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3812,11 +3812,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3828,14 +3828,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3845,11 +3845,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3861,14 +3861,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3878,14 +3878,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3911,14 +3911,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3940,18 +3940,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3960,28 +3960,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3993,14 +3993,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4010,14 +4010,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4026,14 +4026,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4043,14 +4043,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4059,14 +4059,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4076,14 +4076,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4092,14 +4092,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4109,14 +4109,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4125,14 +4125,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,14 +4142,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4158,14 +4158,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,14 +4175,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>23</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4191,14 +4191,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4208,11 +4208,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4224,14 +4224,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4241,14 +4241,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4257,14 +4257,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4274,11 +4274,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4307,14 +4307,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4323,14 +4323,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4340,11 +4340,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>120</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4356,14 +4356,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4373,14 +4373,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4389,14 +4389,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4406,14 +4406,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>57</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4422,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4439,14 +4439,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4455,14 +4455,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4472,14 +4472,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4488,14 +4488,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4505,14 +4505,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4521,14 +4521,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4538,14 +4538,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4571,14 +4571,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4604,14 +4604,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4620,14 +4620,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4637,14 +4637,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4653,14 +4653,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4670,14 +4670,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4686,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4703,11 +4703,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>56</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4719,14 +4719,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4736,14 +4736,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4752,14 +4752,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,14 +4769,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4785,14 +4785,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>117</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4802,14 +4802,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4818,14 +4818,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4835,14 +4835,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,14 +4851,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,14 +4868,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4884,14 +4884,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,14 +4901,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>291</v>
+        <v>120</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4917,31 +4917,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4950,14 +4950,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4967,11 +4967,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4983,14 +4983,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>58</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5000,11 +5000,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>235</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5016,14 +5016,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5033,11 +5033,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5049,14 +5049,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,14 +5066,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,14 +5082,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>94</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5099,14 +5099,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>112</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5132,14 +5132,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>69</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5165,14 +5165,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>313</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5198,14 +5198,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>112</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5214,14 +5214,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>316</v>
+        <v>94</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5231,14 +5231,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5247,14 +5247,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5264,14 +5264,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5280,14 +5280,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5297,11 +5297,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>58</v>
@@ -5313,14 +5313,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5334,10 +5334,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5346,14 +5346,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5363,14 +5363,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5379,14 +5379,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5396,14 +5396,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>103</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5412,14 +5412,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,14 +5429,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>102</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>331</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5445,14 +5445,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5462,49 +5462,82 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>332</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>69</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>87</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>333</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
         <v>334</v>
       </c>
-      <c t="s" r="Q122" s="12">
+      <c t="s" r="Q123" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7593.3149999999996</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7592.3149999999996</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>335</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
         <v>336</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
         <v>337</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6093,10 +6126,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -359,6 +359,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>DAKTARIN 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -386,6 +395,12 @@
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
+    <t>DIFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>111.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -443,12 +458,6 @@
     <t>EVASTINE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>FARCOLIN RESPIRATOR 0.5% SOLN. 20 ML</t>
   </si>
   <si>
@@ -578,6 +587,12 @@
     <t>104.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 250MG 14 TAB</t>
+  </si>
+  <si>
+    <t>112.00</t>
+  </si>
+  <si>
     <t>LIMITLESS WOMAN MAX 30 TABS.</t>
   </si>
   <si>
@@ -827,6 +842,15 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>VALGESTRIL 21 F.C. TABS (BIPHASIC)</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>VASTAREL MR 35MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -1016,7 +1040,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 8:54 PM</t>
+    <t>Sunday, 20 July, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2647,7 +2671,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2657,14 +2681,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2680,7 +2704,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2690,14 +2714,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2713,7 +2737,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2723,14 +2747,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2739,14 +2763,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2756,14 +2780,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2772,14 +2796,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2789,11 +2813,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2812,7 +2836,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2822,14 +2846,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2838,14 +2862,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2855,11 +2879,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2871,14 +2895,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2888,14 +2912,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2904,14 +2928,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2921,14 +2945,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2944,7 +2968,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2954,14 +2978,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2977,7 +3001,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2994,7 +3018,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>142</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3003,14 +3027,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3020,14 +3044,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3036,14 +3060,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3053,14 +3077,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3069,14 +3093,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3086,14 +3110,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3102,14 +3126,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3119,11 +3143,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3135,14 +3159,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3152,11 +3176,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3175,7 +3199,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3185,14 +3209,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3201,14 +3225,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3218,11 +3242,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3234,14 +3258,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3251,11 +3275,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3267,7 +3291,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3284,11 +3308,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3300,28 +3324,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3333,14 +3357,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3350,14 +3374,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3366,31 +3390,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3399,14 +3423,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3416,14 +3440,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3432,14 +3456,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3449,11 +3473,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3465,14 +3489,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3482,14 +3506,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3498,14 +3522,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3515,14 +3539,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3531,14 +3555,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3548,14 +3572,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3564,14 +3588,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3581,14 +3605,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3597,31 +3621,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3630,7 +3654,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3647,14 +3671,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3663,14 +3687,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3680,11 +3704,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3696,31 +3720,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3729,31 +3753,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3762,14 +3786,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3779,14 +3803,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3795,14 +3819,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3812,14 +3836,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3835,13 +3859,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3849,7 +3873,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3868,7 +3892,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3878,11 +3902,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3894,14 +3918,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3911,14 +3935,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3927,14 +3951,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3944,14 +3968,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3960,31 +3984,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3993,14 +4017,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4010,11 +4034,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4026,14 +4050,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4043,14 +4067,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4059,31 +4083,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4092,14 +4116,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4109,11 +4133,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4125,14 +4149,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4142,14 +4166,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4158,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4175,14 +4199,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>50</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4191,14 +4215,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4208,14 +4232,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4224,14 +4248,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4241,11 +4265,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4264,7 +4288,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4297,7 +4321,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4307,14 +4331,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4323,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4340,11 +4364,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4356,14 +4380,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4373,14 +4397,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4389,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4406,11 +4430,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>33</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4422,14 +4446,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4439,11 +4463,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4455,14 +4479,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4472,14 +4496,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4488,14 +4512,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4505,11 +4529,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4521,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4538,11 +4562,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4554,7 +4578,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4571,14 +4595,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4587,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4604,14 +4628,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4620,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4637,14 +4661,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4653,14 +4677,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4670,14 +4694,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4686,14 +4710,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4703,14 +4727,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4726,7 +4750,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4759,7 +4783,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4769,11 +4793,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4785,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4802,14 +4826,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4818,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4835,14 +4859,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4851,14 +4875,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4868,14 +4892,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4884,14 +4908,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4901,14 +4925,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4917,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4934,14 +4958,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4950,31 +4974,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4983,31 +5007,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5016,31 +5040,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>123</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5049,31 +5073,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,14 +5106,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5099,14 +5123,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,14 +5139,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5132,14 +5156,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>288</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5148,14 +5172,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>94</v>
+        <v>308</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5165,14 +5189,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5181,14 +5205,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>94</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5198,14 +5222,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>313</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5214,14 +5238,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>94</v>
+        <v>313</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5231,14 +5255,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>288</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5254,7 +5278,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>94</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5264,14 +5288,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5287,7 +5311,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5301,10 +5325,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5313,14 +5337,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5330,14 +5354,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>58</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5346,7 +5370,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5363,14 +5387,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>234</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5379,14 +5403,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5400,10 +5424,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5412,14 +5436,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,14 +5453,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>102</v>
+        <v>327</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>103</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5452,7 +5476,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5462,14 +5486,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>288</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5478,14 +5502,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5495,49 +5519,181 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>334</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>7592.3149999999996</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>332</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>296</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>87</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>333</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>334</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>335</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
         <v>336</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>87</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>102</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>337</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>324</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>87</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>338</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>340</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>69</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>87</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>341</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>342</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7821.3149999999996</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>343</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>344</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>345</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6131,10 +6287,30 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -1040,7 +1040,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 9:01 PM</t>
+    <t>Sunday, 20 July, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -239,9 +251,6 @@
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -419,6 +428,15 @@
     <t>79.6800</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>EMETREX 20 TAB.</t>
   </si>
   <si>
@@ -650,9 +668,15 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -674,9 +698,6 @@
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
     <t>162.0000</t>
   </si>
   <si>
@@ -899,9 +920,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>192.0000</t>
   </si>
   <si>
@@ -980,6 +998,12 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t xml:space="preserve">سكاته حصيره </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -1040,7 +1064,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 9:08 PM</t>
+    <t>Sunday, 20 July, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2110,7 +2134,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2120,14 +2144,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2136,7 +2160,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2153,11 +2177,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2169,14 +2193,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2186,14 +2210,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2202,14 +2226,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2226,7 +2250,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2242,7 +2266,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2252,14 +2276,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2268,14 +2292,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2308,7 +2332,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2318,11 +2342,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2334,14 +2358,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2351,14 +2375,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2374,24 +2398,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2400,20 +2424,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2424,7 +2448,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2440,7 +2464,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2450,11 +2474,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2466,14 +2490,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2483,14 +2507,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2499,14 +2523,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2523,7 +2547,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2539,7 +2563,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2549,14 +2573,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2565,14 +2589,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2589,7 +2613,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2605,7 +2629,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2619,7 +2643,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2631,14 +2655,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2648,14 +2672,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2671,7 +2695,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2704,7 +2728,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2714,14 +2738,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2737,7 +2761,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2747,14 +2771,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2770,7 +2794,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2780,14 +2804,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2796,14 +2820,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2813,14 +2837,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2829,14 +2853,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2846,14 +2870,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2862,14 +2886,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2879,14 +2903,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2902,7 +2926,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2912,14 +2936,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2935,7 +2959,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2945,14 +2969,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2961,14 +2985,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2978,14 +3002,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2994,14 +3018,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3011,14 +3035,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3027,14 +3051,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3044,14 +3068,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3060,14 +3084,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3077,14 +3101,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3100,7 +3124,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3110,14 +3134,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3126,14 +3150,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3143,14 +3167,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3159,14 +3183,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3176,14 +3200,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3199,7 +3223,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3209,11 +3233,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3225,14 +3249,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3242,11 +3266,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3258,14 +3282,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3275,14 +3299,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3291,14 +3315,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3308,11 +3332,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3331,7 +3355,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3341,11 +3365,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3357,14 +3381,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,11 +3398,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3397,21 +3421,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3423,14 +3447,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3440,14 +3464,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3463,13 +3487,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3480,7 +3504,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3496,7 +3520,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3513,7 +3537,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3529,7 +3553,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3562,7 +3586,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3579,7 +3603,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3595,7 +3619,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3605,14 +3629,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3621,14 +3645,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3638,14 +3662,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3654,14 +3678,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3671,11 +3695,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3687,14 +3711,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3704,14 +3728,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3720,28 +3744,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3753,14 +3777,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3770,14 +3794,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3786,31 +3810,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3819,14 +3843,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3836,14 +3860,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3859,13 +3883,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3873,10 +3897,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3885,14 +3909,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3902,14 +3926,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3918,28 +3942,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3951,14 +3975,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3968,11 +3992,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3984,14 +4008,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4001,11 +4025,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -4017,14 +4041,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,14 +4058,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4050,14 +4074,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4067,14 +4091,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4083,28 +4107,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4116,14 +4140,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,14 +4157,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4149,31 +4173,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4182,14 +4206,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4199,14 +4223,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4215,14 +4239,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,14 +4256,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4248,14 +4272,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,11 +4289,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4281,14 +4305,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,7 +4322,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4321,7 +4345,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>58</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4331,11 +4355,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4347,14 +4371,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,14 +4388,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4380,14 +4404,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4397,14 +4421,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4413,14 +4437,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4430,14 +4454,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4446,14 +4470,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,14 +4487,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>123</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4479,14 +4503,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,14 +4520,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4512,14 +4536,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,14 +4553,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>126</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4545,14 +4569,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,11 +4586,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>57</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4578,14 +4602,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,14 +4619,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4611,7 +4635,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4628,14 +4652,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4644,14 +4668,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,14 +4685,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4677,14 +4701,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,11 +4718,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4710,14 +4734,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,11 +4751,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4743,14 +4767,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,11 +4784,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4776,14 +4800,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4793,11 +4817,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>160</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4809,14 +4833,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,11 +4850,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>85</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4842,14 +4866,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4859,14 +4883,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>165</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4875,14 +4899,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,11 +4916,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>56</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4908,14 +4932,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,14 +4949,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4941,14 +4965,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4958,14 +4982,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4974,14 +4998,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>60</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4991,14 +5015,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5014,7 +5038,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5031,7 +5055,7 @@
         <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5057,14 +5081,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>123</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5073,14 +5097,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5090,11 +5114,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -5106,31 +5130,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5139,31 +5163,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>40</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5185,7 +5209,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5193,7 +5217,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5205,28 +5229,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>58</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5238,31 +5262,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5271,31 +5295,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>296</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5311,24 +5335,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>94</v>
+        <v>319</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5337,31 +5361,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>321</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5370,31 +5394,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>296</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5403,31 +5427,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5436,31 +5460,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>58</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5476,24 +5500,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5509,21 +5533,21 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5535,28 +5559,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>296</v>
+        <v>73</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>58</v>
@@ -5568,31 +5592,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>102</v>
+        <v>315</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>103</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5601,31 +5625,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>296</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5641,13 +5665,13 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
@@ -5658,42 +5682,141 @@
         <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>343</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>344</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>90</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>105</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q128" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7821.3149999999996</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
-        <v>343</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
-        <v>344</v>
-      </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>345</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>332</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>90</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>346</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>347</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>348</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>73</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>90</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>349</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>350</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7936.5450000000001</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>351</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>352</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>353</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6307,10 +6430,25 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -395,6 +395,18 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -668,9 +680,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -938,12 +947,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>ايفا كريم 170 جم</t>
   </si>
   <si>
@@ -996,6 +999,9 @@
   </si>
   <si>
     <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t xml:space="preserve">سكاته حصيره </t>
@@ -2837,14 +2843,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2853,14 +2859,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2870,14 +2876,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2886,14 +2892,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2903,14 +2909,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2919,14 +2925,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2936,14 +2942,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2952,14 +2958,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2969,14 +2975,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2985,14 +2991,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3002,14 +3008,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3018,14 +3024,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3035,11 +3041,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -3051,14 +3057,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3068,14 +3074,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3084,14 +3090,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3101,14 +3107,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3117,14 +3123,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3134,14 +3140,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3150,14 +3156,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3167,14 +3173,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3190,7 +3196,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3200,14 +3206,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3216,14 +3222,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3233,11 +3239,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3249,14 +3255,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3266,14 +3272,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3282,14 +3288,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3299,14 +3305,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3315,14 +3321,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3332,14 +3338,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3348,7 +3354,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3365,11 +3371,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3381,14 +3387,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3398,11 +3404,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3414,14 +3420,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3454,7 +3460,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3464,11 +3470,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3480,7 +3486,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3493,15 +3499,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3513,31 +3519,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3546,14 +3552,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3563,14 +3569,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3579,14 +3585,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3596,14 +3602,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3612,14 +3618,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3629,14 +3635,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3645,14 +3651,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3662,11 +3668,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3678,14 +3684,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3695,14 +3701,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3711,14 +3717,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3728,14 +3734,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3744,7 +3750,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3761,14 +3767,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3777,14 +3783,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3794,14 +3800,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3810,31 +3816,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3843,31 +3849,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3876,14 +3882,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3893,14 +3899,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3909,14 +3915,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3926,11 +3932,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3942,31 +3948,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3975,28 +3981,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -4008,14 +4014,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4025,11 +4031,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -4041,14 +4047,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4058,14 +4064,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4081,7 +4087,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4098,7 +4104,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4114,7 +4120,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4131,7 +4137,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4157,14 +4163,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4173,7 +4179,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4186,18 +4192,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4213,13 +4219,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4246,7 +4252,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4260,10 +4266,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4272,14 +4278,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>58</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4289,14 +4295,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4312,7 +4318,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4322,14 +4328,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4338,14 +4344,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4355,14 +4361,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4371,14 +4377,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4395,7 +4401,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4411,7 +4417,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4421,14 +4427,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4437,14 +4443,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4454,11 +4460,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4470,14 +4476,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4487,14 +4493,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4510,7 +4516,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4520,11 +4526,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4536,7 +4542,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4553,14 +4559,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4569,14 +4575,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4586,7 +4592,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4609,7 +4615,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4626,7 +4632,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4642,7 +4648,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4656,10 +4662,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>57</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4668,14 +4674,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4685,14 +4691,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4708,7 +4714,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4718,14 +4724,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4734,14 +4740,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4751,14 +4757,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4767,14 +4773,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4784,14 +4790,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4824,7 +4830,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4857,7 +4863,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4873,7 +4879,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4883,14 +4889,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4899,14 +4905,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4916,14 +4922,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4932,14 +4938,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4949,11 +4955,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>56</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4972,7 +4978,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5005,7 +5011,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5015,14 +5021,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5031,14 +5037,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5048,14 +5054,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5071,7 +5077,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5081,14 +5087,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5097,14 +5103,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5121,7 +5127,7 @@
         <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5137,7 +5143,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5147,14 +5153,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5163,14 +5169,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5180,14 +5186,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5203,24 +5209,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>308</v>
+        <v>60</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5229,14 +5235,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>58</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5246,11 +5252,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5262,14 +5268,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>58</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5279,11 +5285,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5295,14 +5301,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5312,11 +5318,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5328,14 +5334,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5345,14 +5351,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5361,14 +5367,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5378,14 +5384,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>219</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5394,7 +5400,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5411,14 +5417,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>73</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5427,7 +5433,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5444,14 +5450,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>327</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5460,7 +5466,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5477,14 +5483,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>219</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5500,7 +5506,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>330</v>
+        <v>97</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5510,14 +5516,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5543,11 +5549,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5559,14 +5565,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5580,10 +5586,10 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5592,14 +5598,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5609,7 +5615,7 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
@@ -5632,7 +5638,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5642,14 +5648,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5658,14 +5664,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5675,14 +5681,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>342</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5691,14 +5697,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>344</v>
+        <v>129</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5708,14 +5714,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>105</v>
+        <v>343</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>106</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5731,7 +5737,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5741,14 +5747,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>346</v>
+        <v>105</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>347</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>219</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5757,14 +5763,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5774,49 +5780,82 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>349</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>350</v>
       </c>
-      <c t="s" r="Q130" s="12">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>73</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>90</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>351</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>352</v>
+      </c>
+      <c t="s" r="Q131" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7936.5450000000001</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>351</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>352</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>7967.5450000000001</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
         <v>353</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>354</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>355</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6445,10 +6484,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -1070,7 +1070,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 9:13 PM</t>
+    <t>Sunday, 20 July, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -668,6 +668,15 @@
     <t>90.00</t>
   </si>
   <si>
+    <t>MUCOBRAVE 600 MG 10 SACHETS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
@@ -1070,7 +1079,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 9:15 PM</t>
+    <t>Sunday, 20 July, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4021,7 +4030,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4031,14 +4040,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -4080,14 +4089,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4097,14 +4106,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4120,7 +4129,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4137,7 +4146,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4153,7 +4162,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4170,7 +4179,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4196,14 +4205,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>61</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4212,7 +4221,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4225,18 +4234,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4252,13 +4261,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4285,7 +4294,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4299,10 +4308,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4311,14 +4320,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4328,14 +4337,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4351,7 +4360,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4361,14 +4370,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4394,14 +4403,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4410,14 +4419,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4434,7 +4443,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4450,7 +4459,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4460,14 +4469,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4476,14 +4485,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4493,11 +4502,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4509,14 +4518,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4526,14 +4535,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4549,7 +4558,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4559,11 +4568,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4575,7 +4584,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4592,14 +4601,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4608,14 +4617,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4625,7 +4634,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>126</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4648,7 +4657,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4665,7 +4674,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4681,7 +4690,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4695,10 +4704,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>57</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4707,14 +4716,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4724,14 +4733,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4747,7 +4756,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4757,14 +4766,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4773,14 +4782,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4790,14 +4799,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4806,14 +4815,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4823,14 +4832,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4863,7 +4872,7 @@
         <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4896,7 +4905,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4912,7 +4921,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4922,14 +4931,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4938,14 +4947,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4955,14 +4964,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4971,14 +4980,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4988,11 +4997,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>56</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -5011,7 +5020,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5044,7 +5053,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5054,14 +5063,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5070,14 +5079,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5087,14 +5096,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5110,7 +5119,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>123</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5120,14 +5129,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5136,14 +5145,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5160,7 +5169,7 @@
         <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5176,7 +5185,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5186,14 +5195,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5202,14 +5211,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5219,14 +5228,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>126</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5242,24 +5251,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>60</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5268,14 +5277,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>58</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5285,11 +5294,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>313</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5301,14 +5310,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5318,11 +5327,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5351,11 +5360,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>130</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5367,14 +5376,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5384,14 +5393,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>130</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>313</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5407,7 +5416,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>97</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5417,14 +5426,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>129</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5454,10 +5463,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>73</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5466,7 +5475,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5483,14 +5492,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>328</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5499,7 +5508,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5516,14 +5525,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>54</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5532,14 +5541,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>332</v>
+        <v>97</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5549,14 +5558,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5565,14 +5574,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5582,11 +5591,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5605,7 +5614,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5615,14 +5624,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5638,7 +5647,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5648,11 +5657,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>58</v>
@@ -5664,14 +5673,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5681,14 +5690,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>249</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5697,14 +5706,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5714,14 +5723,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5737,7 +5746,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>346</v>
+        <v>129</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5747,14 +5756,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>105</v>
+        <v>346</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>106</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5763,14 +5772,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5780,14 +5789,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>348</v>
+        <v>105</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>349</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5803,7 +5812,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5820,42 +5829,75 @@
         <v>352</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>7967.5450000000001</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>353</v>
       </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>73</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>90</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
         <v>354</v>
       </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
         <v>355</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>8042.5450000000001</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>356</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>357</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>358</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6489,10 +6531,15 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -1079,7 +1079,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 9:16 PM</t>
+    <t>Sunday, 20 July, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>43.5600</t>
   </si>
   <si>
+    <t>CALTONEX 20 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -758,6 +767,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>65.75</t>
+  </si>
+  <si>
+    <t>65.7500</t>
+  </si>
+  <si>
     <t>SELGON 20MG 20 TABS.</t>
   </si>
   <si>
@@ -1079,7 +1097,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 9:20 PM</t>
+    <t>Sunday, 20 July, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2347,7 +2365,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2380,7 +2398,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2390,11 +2408,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2423,14 +2441,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2446,24 +2464,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2472,20 +2490,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2496,7 +2514,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2512,7 +2530,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2522,11 +2540,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2595,7 +2613,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2611,7 +2629,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2621,14 +2639,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2661,7 +2679,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2677,7 +2695,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2691,7 +2709,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2720,14 +2738,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2743,7 +2761,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2776,7 +2794,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2786,14 +2804,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2809,7 +2827,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2819,14 +2837,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2842,7 +2860,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2852,14 +2870,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2868,14 +2886,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2885,14 +2903,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2901,14 +2919,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2918,14 +2936,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2934,14 +2952,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2951,14 +2969,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2967,14 +2985,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2984,14 +3002,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3007,7 +3025,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3017,14 +3035,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3040,7 +3058,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3050,14 +3068,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3073,7 +3091,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3083,11 +3101,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -3099,14 +3117,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3116,14 +3134,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3132,14 +3150,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3149,14 +3167,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3172,7 +3190,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3182,14 +3200,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3198,14 +3216,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3215,14 +3233,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>157</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3231,14 +3249,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3248,14 +3266,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3264,14 +3282,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3281,11 +3299,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3304,7 +3322,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3321,7 +3339,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3337,7 +3355,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3347,14 +3365,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3363,14 +3381,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3380,14 +3398,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3396,7 +3414,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3413,11 +3431,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3436,7 +3454,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3469,7 +3487,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3479,11 +3497,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3495,14 +3513,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3516,7 +3534,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3528,7 +3546,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3541,15 +3559,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3568,13 +3586,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3585,7 +3603,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3601,7 +3619,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3618,7 +3636,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3634,7 +3652,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3651,7 +3669,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3667,7 +3685,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3684,7 +3702,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3700,7 +3718,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3733,7 +3751,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3743,14 +3761,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3759,14 +3777,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3776,14 +3794,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3813,10 +3831,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3825,14 +3843,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3842,14 +3860,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3858,31 +3876,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3898,24 +3916,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3924,14 +3942,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3941,14 +3959,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3964,7 +3982,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3997,13 +4015,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -4011,10 +4029,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4023,31 +4041,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4063,7 +4081,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4073,14 +4091,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4089,14 +4107,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4106,11 +4124,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4122,14 +4140,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4139,14 +4157,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4162,7 +4180,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4179,7 +4197,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4195,7 +4213,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4212,7 +4230,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4228,7 +4246,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4238,14 +4256,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4254,31 +4272,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>61</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4294,13 +4312,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4327,7 +4345,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4341,10 +4359,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4353,14 +4371,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>58</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4370,14 +4388,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4393,7 +4411,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4403,14 +4421,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4419,14 +4437,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4436,14 +4454,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4452,14 +4470,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4469,11 +4487,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4485,14 +4503,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4502,11 +4520,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4518,14 +4536,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4535,14 +4553,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>177</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4551,14 +4569,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4568,14 +4586,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4584,14 +4602,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4601,14 +4619,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4617,14 +4635,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4634,14 +4652,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4650,14 +4668,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4667,14 +4685,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>33</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4683,14 +4701,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4700,14 +4718,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>129</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4723,7 +4741,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4737,7 +4755,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4749,14 +4767,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4766,14 +4784,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4782,7 +4800,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4799,14 +4817,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4815,14 +4833,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4832,14 +4850,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4848,14 +4866,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4865,11 +4883,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4881,14 +4899,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4898,7 +4916,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4921,7 +4939,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4954,7 +4972,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4964,11 +4982,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4980,14 +4998,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4997,11 +5015,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>56</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>88</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -5013,14 +5031,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5030,14 +5048,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>172</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5046,14 +5064,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5063,11 +5081,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>56</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5086,7 +5104,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5096,14 +5114,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5112,14 +5130,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5129,14 +5147,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5145,14 +5163,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>60</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5162,14 +5180,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>221</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5178,14 +5196,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5195,14 +5213,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5211,14 +5229,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5228,14 +5246,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>126</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5244,14 +5262,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5261,11 +5279,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5277,31 +5295,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5310,31 +5328,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>40</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5343,28 +5361,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5376,28 +5394,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>321</v>
+        <v>58</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5409,31 +5427,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5442,31 +5460,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>97</v>
+        <v>327</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5482,21 +5500,21 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>97</v>
+        <v>329</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>73</v>
@@ -5508,31 +5526,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>331</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5541,31 +5559,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>54</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5574,31 +5592,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>100</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>337</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5607,31 +5625,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>337</v>
+        <v>100</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>327</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>339</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5640,31 +5658,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>73</v>
+        <v>341</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5680,24 +5698,24 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5706,31 +5724,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>252</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5739,28 +5757,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>58</v>
@@ -5772,28 +5790,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>349</v>
+        <v>100</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>105</v>
+        <v>325</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5805,31 +5823,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>337</v>
+        <v>132</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>129</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5838,66 +5856,132 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>354</v>
+        <v>108</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>355</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>8042.5450000000001</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>356</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>343</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>93</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
         <v>357</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
         <v>358</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c t="s" r="Q133" s="12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>359</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>73</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>93</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>360</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>361</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>8150.2950000000001</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>362</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>363</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>364</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6536,10 +6620,20 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -554,6 +554,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>GENUPHIL ORIGINAL 50 TAB</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -626,6 +635,12 @@
     <t>104.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 250MG 14 TAB</t>
   </si>
   <si>
@@ -722,6 +737,12 @@
     <t>46.5000</t>
   </si>
   <si>
+    <t>PEPZOL 40MG 7 CAPS</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -926,9 +947,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -1097,7 +1115,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 9:22 PM</t>
+    <t>Sunday, 20 July, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3553,7 +3571,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3567,7 +3585,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3579,7 +3597,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3592,15 +3610,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3619,13 +3637,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3636,7 +3654,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3652,7 +3670,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3669,7 +3687,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3685,7 +3703,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3702,7 +3720,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3718,7 +3736,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3735,7 +3753,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3751,7 +3769,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3784,7 +3802,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3810,14 +3828,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3827,14 +3845,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3864,10 +3882,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3893,11 +3911,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3909,28 +3927,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3949,7 +3967,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3959,14 +3977,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3982,13 +4000,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3999,7 +4017,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4015,7 +4033,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4025,14 +4043,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4041,31 +4059,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4081,7 +4099,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4114,21 +4132,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4157,14 +4175,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4173,14 +4191,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4190,14 +4208,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4223,11 +4241,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4239,14 +4257,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4256,14 +4274,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4289,14 +4307,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4318,7 +4336,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4345,7 +4363,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4359,7 +4377,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4388,14 +4406,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>61</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4404,31 +4422,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4454,7 +4472,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4477,7 +4495,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4491,10 +4509,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4503,14 +4521,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4520,11 +4538,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4536,14 +4554,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4553,11 +4571,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4569,14 +4587,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4586,14 +4604,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4602,14 +4620,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4619,11 +4637,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4635,14 +4653,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4652,11 +4670,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4668,14 +4686,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4685,14 +4703,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4701,14 +4719,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4718,11 +4736,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4741,7 +4759,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4758,7 +4776,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4774,7 +4792,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4784,11 +4802,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>33</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4800,14 +4818,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4817,11 +4835,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>129</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>57</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4833,14 +4851,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4850,14 +4868,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4866,14 +4884,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4883,11 +4901,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4899,14 +4917,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4916,11 +4934,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4932,7 +4950,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4949,14 +4967,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4965,14 +4983,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4982,14 +5000,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4998,14 +5016,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5015,14 +5033,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5031,14 +5049,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5048,14 +5066,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>172</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>173</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5071,7 +5089,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5081,14 +5099,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>56</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>91</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5097,14 +5115,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5114,11 +5132,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5130,7 +5148,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5147,14 +5165,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5170,7 +5188,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5180,14 +5198,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>303</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5196,14 +5214,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5213,14 +5231,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5229,14 +5247,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5246,14 +5264,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5262,14 +5280,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5279,11 +5297,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5295,14 +5313,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5312,14 +5330,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5328,14 +5346,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5345,14 +5363,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5361,31 +5379,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5394,31 +5412,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5427,31 +5445,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>324</v>
+        <v>60</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5460,14 +5478,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5493,14 +5511,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>329</v>
+        <v>58</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5510,14 +5528,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5526,14 +5544,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5543,14 +5561,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5559,14 +5577,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>100</v>
+        <v>333</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5576,14 +5594,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>335</v>
+        <v>133</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5592,14 +5610,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5609,14 +5627,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>337</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5625,7 +5643,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5642,14 +5660,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>54</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>339</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5665,7 +5683,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>341</v>
+        <v>100</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5675,14 +5693,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5698,7 +5716,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>343</v>
+        <v>100</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5708,14 +5726,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5724,14 +5742,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5741,14 +5759,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>347</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>58</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5757,14 +5775,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>347</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5774,14 +5792,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5790,14 +5808,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5807,11 +5825,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5830,7 +5848,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5863,7 +5881,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>355</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5873,14 +5891,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>108</v>
+        <v>331</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>109</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5896,7 +5914,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>343</v>
+        <v>100</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5906,14 +5924,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>358</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5922,14 +5940,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5939,49 +5957,148 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
+        <v>359</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>360</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
         <v>361</v>
       </c>
-      <c t="s" r="Q134" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>8150.2950000000001</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>93</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>108</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>362</v>
       </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>349</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>93</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
         <v>363</v>
       </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>364</v>
       </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c t="s" r="Q136" s="12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>365</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>73</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>93</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>366</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>367</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>8289.2950000000001</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>368</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>369</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>370</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6630,10 +6747,25 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -623,6 +623,15 @@
     <t>52.5000</t>
   </si>
   <si>
+    <t>INFECTOMYCIN 500MG 6 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>97.0000</t>
+  </si>
+  <si>
     <t>IROLAMIN 30 CAPS.</t>
   </si>
   <si>
@@ -1115,7 +1124,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 9:27 PM</t>
+    <t>Sunday, 20 July, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3835,7 +3844,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3845,14 +3854,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3861,14 +3870,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3878,14 +3887,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3901,7 +3910,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3911,14 +3920,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3927,14 +3936,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3944,14 +3953,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3960,14 +3969,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3977,14 +3986,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3993,31 +4002,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4033,24 +4042,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4059,14 +4068,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4076,14 +4085,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4099,7 +4108,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4132,13 +4141,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4146,10 +4155,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4158,31 +4167,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4198,7 +4207,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4208,14 +4217,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4241,11 +4250,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4257,14 +4266,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4274,14 +4283,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4297,7 +4306,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4314,7 +4323,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4330,7 +4339,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4347,7 +4356,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4377,7 +4386,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4389,7 +4398,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4406,14 +4415,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4422,7 +4431,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4435,18 +4444,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4462,13 +4471,13 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4495,7 +4504,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4509,10 +4518,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4521,14 +4530,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4538,14 +4547,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>50</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4561,7 +4570,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4571,14 +4580,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4587,7 +4596,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4604,7 +4613,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4627,7 +4636,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4637,14 +4646,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4653,14 +4662,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4677,7 +4686,7 @@
         <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4693,7 +4702,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4703,14 +4712,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4719,14 +4728,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4736,11 +4745,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4752,14 +4761,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4769,14 +4778,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>179</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4792,7 +4801,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4802,11 +4811,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4818,7 +4827,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4835,14 +4844,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4851,14 +4860,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4868,7 +4877,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>129</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4891,7 +4900,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4908,7 +4917,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4924,7 +4933,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4938,10 +4947,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>57</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4950,14 +4959,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4967,14 +4976,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4990,7 +4999,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5000,14 +5009,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5016,14 +5025,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5033,14 +5042,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5049,14 +5058,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5066,14 +5075,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5106,7 +5115,7 @@
         <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5139,7 +5148,7 @@
         <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5155,7 +5164,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5165,14 +5174,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5181,14 +5190,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5198,14 +5207,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5214,14 +5223,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5231,11 +5240,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>56</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5254,7 +5263,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5287,7 +5296,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5297,14 +5306,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5313,14 +5322,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5330,14 +5339,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5346,14 +5355,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>126</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5363,14 +5372,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>246</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5379,14 +5388,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5403,7 +5412,7 @@
         <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5419,7 +5428,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5429,14 +5438,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5445,14 +5454,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5462,14 +5471,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5485,24 +5494,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>326</v>
+        <v>60</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>133</v>
+        <v>326</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>134</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5511,14 +5520,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>58</v>
+        <v>329</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5528,11 +5537,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5544,14 +5553,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5561,11 +5570,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5594,11 +5603,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>133</v>
+        <v>334</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5610,14 +5619,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5627,14 +5636,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>336</v>
+        <v>133</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>328</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5650,7 +5659,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5660,14 +5669,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>132</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5697,10 +5706,10 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>73</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5709,7 +5718,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5726,14 +5735,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>343</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5742,7 +5751,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5759,14 +5768,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>54</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5775,14 +5784,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>347</v>
+        <v>100</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5792,14 +5801,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>265</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>348</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5808,14 +5817,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5825,11 +5834,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5848,7 +5857,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5858,14 +5867,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5881,7 +5890,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5891,11 +5900,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>58</v>
@@ -5907,14 +5916,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5924,14 +5933,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5940,14 +5949,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5957,14 +5966,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>359</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5980,7 +5989,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>361</v>
+        <v>132</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5990,14 +5999,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6006,14 +6015,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6023,14 +6032,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>363</v>
+        <v>108</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>364</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6046,7 +6055,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6063,42 +6072,75 @@
         <v>367</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>8289.2950000000001</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>368</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>73</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>93</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
         <v>369</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
         <v>370</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c t="s" r="Q138" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>8386.2950000000001</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
+        <v>371</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
+        <v>372</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>373</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6762,10 +6804,15 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-20_00-00.xlsx
+++ b/DaySale_2025-07-20_00-00.xlsx
@@ -455,7 +455,7 @@
     <t>101.00</t>
   </si>
   <si>
-    <t>50.5000</t>
+    <t>151.5000</t>
   </si>
   <si>
     <t>EMETREX 20 TAB.</t>
@@ -713,6 +713,12 @@
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
+    <t>NEXIMERICAN 40 MG 21 CAPS.</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -1124,7 +1130,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Sunday, 20 July, 2025 9:30 PM</t>
+    <t>Sunday, 20 July, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3118,7 +3124,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3135,7 +3141,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -4273,7 +4279,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4283,14 +4289,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4306,7 +4312,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4316,14 +4322,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4332,14 +4338,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4349,14 +4355,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4365,14 +4371,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4382,14 +4388,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4398,7 +4404,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4415,11 +4421,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4448,14 +4454,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4477,18 +4483,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4497,28 +4503,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4530,14 +4536,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4547,14 +4553,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>167</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4570,7 +4576,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4580,14 +4586,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4596,14 +4602,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4613,14 +4619,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4646,11 +4652,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4662,14 +4668,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4679,14 +4685,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4695,14 +4701,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4712,14 +4718,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4728,14 +4734,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4745,14 +4751,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4761,14 +4767,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4778,11 +4784,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4794,14 +4800,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4811,14 +4817,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4827,14 +4833,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4844,7 +4850,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4877,14 +4883,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4900,7 +4906,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4910,11 +4916,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4926,14 +4932,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4943,14 +4949,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4959,14 +4965,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4976,14 +4982,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>57</v>
+        <v>288</v>
       </c>
   